--- a/out_file/项目甘特图(已自动还原).xlsx
+++ b/out_file/项目甘特图(已自动还原).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC7A107-B4CF-40B8-98CC-88C36B19833D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BEC34B-6332-4DD6-B05A-073A120904BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -734,7 +734,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1108,15 +1108,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1132,18 +1126,120 @@
       <top style="thin">
         <color theme="0"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1155,36 +1251,6 @@
       </right>
       <top style="thin">
         <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1284,7 +1350,7 @@
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1421,9 +1487,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1443,9 +1506,6 @@
     <xf numFmtId="0" fontId="0" fillId="42" borderId="26" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="27" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1458,52 +1518,13 @@
     <xf numFmtId="0" fontId="0" fillId="42" borderId="28" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="32" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="33" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="30" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="29" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
@@ -1518,20 +1539,68 @@
     <xf numFmtId="0" fontId="28" fillId="42" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="40" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="41" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
@@ -1545,6 +1614,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1554,14 +1638,23 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="58">
@@ -2156,13 +2249,13 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="2:93" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="2" t="s">
         <v>43</v>
       </c>
@@ -2173,66 +2266,66 @@
         <v>91</v>
       </c>
       <c r="J2" s="9"/>
-      <c r="K2" s="79" t="s">
+      <c r="K2" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="83"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="93"/>
       <c r="O2" s="10"/>
-      <c r="P2" s="79" t="s">
+      <c r="P2" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="83"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="93"/>
       <c r="U2" s="11"/>
-      <c r="V2" s="79" t="s">
+      <c r="V2" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="83"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="93"/>
       <c r="Z2" s="12"/>
-      <c r="AA2" s="79" t="s">
+      <c r="AA2" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="83"/>
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="91"/>
+      <c r="AF2" s="93"/>
       <c r="AG2" s="25"/>
-      <c r="AH2" s="79" t="s">
+      <c r="AH2" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
+      <c r="AI2" s="91"/>
+      <c r="AJ2" s="91"/>
+      <c r="AK2" s="91"/>
+      <c r="AL2" s="91"/>
+      <c r="AM2" s="91"/>
+      <c r="AN2" s="91"/>
       <c r="AO2" s="20"/>
       <c r="AP2" s="20"/>
     </row>
     <row r="3" spans="2:93" s="5" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="87" t="s">
+      <c r="F3" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="81" t="s">
+      <c r="G3" s="92" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -2259,12 +2352,12 @@
       <c r="AA3" s="4"/>
     </row>
     <row r="4" spans="2:93" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="86"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
       <c r="H4" s="23">
         <v>1</v>
       </c>
@@ -5196,18 +5289,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="AA2:AF2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="AA2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="H5:CO30">
@@ -6828,8 +6921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFB2BFF-70E2-48D6-9BA9-EF200C12E15A}">
   <dimension ref="B5:CV61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ54" sqref="AJ54"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG48" sqref="AG48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -6838,7 +6931,13 @@
     <col min="3" max="3" width="1.61328125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="7.84375" customWidth="1"/>
     <col min="5" max="5" width="1.921875" style="35" customWidth="1"/>
-    <col min="6" max="81" width="1.921875" customWidth="1"/>
+    <col min="6" max="51" width="1.921875" customWidth="1"/>
+    <col min="52" max="52" width="1.765625" customWidth="1"/>
+    <col min="53" max="63" width="1.921875" customWidth="1"/>
+    <col min="64" max="64" width="2.69140625" customWidth="1"/>
+    <col min="65" max="67" width="1.921875" customWidth="1"/>
+    <col min="68" max="68" width="4.765625" customWidth="1"/>
+    <col min="69" max="81" width="1.921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="5:81" ht="17" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -7636,7 +7735,7 @@
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
-      <c r="H16" s="48"/>
+      <c r="H16" s="47"/>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
@@ -8178,395 +8277,389 @@
       <c r="CC20" s="34"/>
     </row>
     <row r="24" spans="2:100" x14ac:dyDescent="0.3">
-      <c r="E24" s="47">
+      <c r="E24" s="46">
+        <v>5</v>
+      </c>
+      <c r="F24" s="46">
+        <v>7</v>
+      </c>
+      <c r="G24" s="46">
+        <v>13</v>
+      </c>
+      <c r="H24" s="46">
+        <v>13</v>
+      </c>
+      <c r="I24" s="46">
+        <v>13</v>
+      </c>
+      <c r="J24" s="46">
+        <v>13</v>
+      </c>
+      <c r="K24" s="46">
+        <v>11</v>
+      </c>
+      <c r="L24" s="46">
+        <v>8</v>
+      </c>
+      <c r="M24" s="46">
+        <v>4</v>
+      </c>
+      <c r="N24" s="46">
+        <v>4</v>
+      </c>
+      <c r="O24" s="46">
+        <v>4</v>
+      </c>
+      <c r="P24" s="46">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="46">
+        <v>4</v>
+      </c>
+      <c r="R24" s="46">
+        <v>10</v>
+      </c>
+      <c r="S24" s="46">
+        <v>10</v>
+      </c>
+      <c r="T24" s="46">
+        <v>10</v>
+      </c>
+      <c r="U24" s="46">
+        <v>10</v>
+      </c>
+      <c r="V24" s="46">
+        <v>10</v>
+      </c>
+      <c r="W24" s="46">
+        <v>10</v>
+      </c>
+      <c r="X24" s="46">
+        <v>10</v>
+      </c>
+      <c r="Y24" s="46">
+        <v>10</v>
+      </c>
+      <c r="Z24" s="46">
+        <v>10</v>
+      </c>
+      <c r="AA24" s="46">
+        <v>10</v>
+      </c>
+      <c r="AB24" s="46">
         <v>0</v>
       </c>
-      <c r="F24" s="47">
+      <c r="AC24" s="46">
         <v>0</v>
       </c>
-      <c r="G24" s="47">
+      <c r="AD24" s="46">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="46">
         <v>7</v>
       </c>
-      <c r="H24" s="47">
-        <v>10</v>
-      </c>
-      <c r="I24" s="47">
-        <v>13</v>
-      </c>
-      <c r="J24" s="47">
-        <v>13</v>
-      </c>
-      <c r="K24" s="47">
-        <v>13</v>
-      </c>
-      <c r="L24" s="47">
-        <v>13</v>
-      </c>
-      <c r="M24" s="47">
-        <v>13</v>
-      </c>
-      <c r="N24" s="47">
-        <v>13</v>
-      </c>
-      <c r="O24" s="47">
-        <v>13</v>
-      </c>
-      <c r="P24" s="47">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="47">
-        <v>10</v>
-      </c>
-      <c r="R24" s="47">
-        <v>10</v>
-      </c>
-      <c r="S24" s="47">
+      <c r="AF24" s="46">
+        <v>7</v>
+      </c>
+      <c r="AG24" s="46">
+        <v>7</v>
+      </c>
+      <c r="AH24" s="46">
+        <v>7</v>
+      </c>
+      <c r="AI24" s="46">
+        <v>7</v>
+      </c>
+      <c r="AJ24" s="46">
+        <v>7</v>
+      </c>
+      <c r="AK24" s="46">
         <v>0</v>
       </c>
-      <c r="T24" s="47">
+      <c r="AL24" s="46">
         <v>0</v>
       </c>
-      <c r="U24" s="47">
+      <c r="AM24" s="46">
         <v>0</v>
       </c>
-      <c r="V24" s="47">
+      <c r="AN24" s="46">
         <v>0</v>
       </c>
-      <c r="W24" s="47">
+      <c r="AO24" s="46">
         <v>0</v>
       </c>
-      <c r="X24" s="47">
+      <c r="AP24" s="46">
         <v>0</v>
       </c>
-      <c r="Y24" s="47">
+      <c r="AQ24" s="46">
         <v>0</v>
       </c>
-      <c r="Z24" s="47">
+      <c r="AR24" s="46">
         <v>0</v>
       </c>
-      <c r="AA24" s="47">
+      <c r="AS24" s="46">
         <v>0</v>
       </c>
-      <c r="AB24" s="47">
+      <c r="AT24" s="46">
         <v>0</v>
       </c>
-      <c r="AC24" s="47">
+      <c r="AU24" s="46">
         <v>0</v>
       </c>
-      <c r="AD24" s="47">
+      <c r="AV24" s="46">
         <v>0</v>
       </c>
-      <c r="AE24" s="47">
-        <v>4</v>
-      </c>
-      <c r="AF24" s="47">
-        <v>4</v>
-      </c>
-      <c r="AG24" s="47">
-        <v>4</v>
-      </c>
-      <c r="AH24" s="47">
-        <v>4</v>
-      </c>
-      <c r="AI24" s="47">
-        <v>4</v>
-      </c>
-      <c r="AJ24" s="47">
-        <v>4</v>
-      </c>
-      <c r="AK24" s="47">
-        <v>4</v>
-      </c>
-      <c r="AL24" s="47">
+      <c r="AW24" s="46">
         <v>0</v>
       </c>
-      <c r="AM24" s="47">
+      <c r="AX24" s="46">
         <v>0</v>
       </c>
-      <c r="AN24" s="47">
+      <c r="AY24" s="46">
         <v>0</v>
       </c>
-      <c r="AO24" s="47">
+      <c r="AZ24" s="46">
         <v>0</v>
       </c>
-      <c r="AP24" s="47">
+      <c r="BA24" s="46">
         <v>0</v>
       </c>
-      <c r="AQ24" s="47">
+      <c r="BB24" s="46">
         <v>0</v>
       </c>
-      <c r="AR24" s="47">
+      <c r="BC24" s="46">
         <v>0</v>
       </c>
-      <c r="AS24" s="47">
+      <c r="BD24" s="46">
         <v>0</v>
       </c>
-      <c r="AT24" s="47">
+      <c r="BE24" s="46">
         <v>0</v>
       </c>
-      <c r="AU24" s="47">
+      <c r="BF24" s="46">
         <v>0</v>
       </c>
-      <c r="AV24" s="47">
+      <c r="BG24" s="46">
         <v>0</v>
       </c>
-      <c r="AW24" s="47">
+      <c r="BH24" s="46">
         <v>0</v>
       </c>
-      <c r="AX24" s="47">
+      <c r="BJ24" s="46">
         <v>0</v>
       </c>
-      <c r="AY24" s="47">
+      <c r="BK24" s="46">
         <v>0</v>
       </c>
-      <c r="AZ24" s="47">
+      <c r="BL24" s="46">
         <v>0</v>
       </c>
-      <c r="BA24" s="47">
+      <c r="BM24" s="46">
         <v>0</v>
       </c>
-      <c r="BB24" s="47">
+      <c r="BN24" s="46">
         <v>0</v>
       </c>
-      <c r="BC24" s="47">
-        <v>0</v>
-      </c>
-      <c r="BD24" s="47">
-        <v>0</v>
-      </c>
-      <c r="BE24" s="47">
-        <v>0</v>
-      </c>
-      <c r="BF24" s="47">
-        <v>0</v>
-      </c>
-      <c r="BG24" s="47">
-        <v>0</v>
-      </c>
-      <c r="BH24" s="47">
-        <v>0</v>
-      </c>
-      <c r="BI24" s="47">
-        <v>0</v>
-      </c>
-      <c r="BJ24" s="47">
-        <v>10</v>
-      </c>
-      <c r="BK24" s="47">
-        <v>10</v>
-      </c>
-      <c r="BL24" s="47">
-        <v>0</v>
-      </c>
-      <c r="BM24" s="47">
-        <v>0</v>
-      </c>
-      <c r="BN24" s="47">
-        <v>0</v>
-      </c>
-      <c r="BO24" s="47">
+      <c r="BO24" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:100" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E25" s="47">
-        <v>5</v>
-      </c>
-      <c r="F25" s="47">
-        <v>5</v>
-      </c>
-      <c r="G25" s="47">
-        <v>5</v>
-      </c>
-      <c r="H25" s="47">
+      <c r="E25" s="46">
         <v>0</v>
       </c>
-      <c r="I25" s="47">
+      <c r="F25" s="46">
+        <v>0</v>
+      </c>
+      <c r="G25" s="46">
+        <v>7</v>
+      </c>
+      <c r="H25" s="46">
+        <v>7</v>
+      </c>
+      <c r="I25" s="46">
+        <v>7</v>
+      </c>
+      <c r="J25" s="46">
+        <v>7</v>
+      </c>
+      <c r="K25" s="46">
+        <v>7</v>
+      </c>
+      <c r="L25" s="46">
+        <v>3</v>
+      </c>
+      <c r="M25" s="46">
+        <v>3</v>
+      </c>
+      <c r="N25" s="46">
+        <v>3</v>
+      </c>
+      <c r="O25" s="46">
+        <v>3</v>
+      </c>
+      <c r="P25" s="46">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="46">
         <v>8</v>
       </c>
-      <c r="J25" s="47">
+      <c r="R25" s="46">
         <v>8</v>
       </c>
-      <c r="K25" s="47">
+      <c r="S25" s="46">
         <v>8</v>
       </c>
-      <c r="L25" s="47">
+      <c r="T25" s="46">
         <v>8</v>
       </c>
-      <c r="M25" s="47">
-        <v>7</v>
-      </c>
-      <c r="N25" s="47">
-        <v>7</v>
-      </c>
-      <c r="O25" s="47">
-        <v>7</v>
-      </c>
-      <c r="P25" s="47">
-        <v>7</v>
-      </c>
-      <c r="Q25" s="47">
-        <v>7</v>
-      </c>
-      <c r="R25" s="47">
-        <v>7</v>
-      </c>
-      <c r="S25" s="47">
-        <v>7</v>
-      </c>
-      <c r="T25" s="47">
-        <v>7</v>
-      </c>
-      <c r="U25" s="47">
+      <c r="U25" s="46">
+        <v>8</v>
+      </c>
+      <c r="V25" s="46">
+        <v>8</v>
+      </c>
+      <c r="W25" s="46">
+        <v>8</v>
+      </c>
+      <c r="X25" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="46">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="46">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="46">
+        <v>3</v>
+      </c>
+      <c r="AC25" s="46">
+        <v>3</v>
+      </c>
+      <c r="AD25" s="46">
+        <v>3</v>
+      </c>
+      <c r="AE25" s="46">
+        <v>3</v>
+      </c>
+      <c r="AF25" s="46">
+        <v>3</v>
+      </c>
+      <c r="AG25" s="46">
+        <v>3</v>
+      </c>
+      <c r="AH25" s="46">
+        <v>3</v>
+      </c>
+      <c r="AI25" s="46">
+        <v>3</v>
+      </c>
+      <c r="AJ25" s="46">
+        <v>3</v>
+      </c>
+      <c r="AK25" s="46">
+        <v>3</v>
+      </c>
+      <c r="AL25" s="46">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="46">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="46">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="46">
+        <v>3</v>
+      </c>
+      <c r="AP25" s="46">
+        <v>3</v>
+      </c>
+      <c r="AQ25" s="46">
+        <v>3</v>
+      </c>
+      <c r="AR25" s="46">
+        <v>3</v>
+      </c>
+      <c r="AS25" s="46">
+        <v>3</v>
+      </c>
+      <c r="AT25" s="46">
+        <v>3</v>
+      </c>
+      <c r="AU25" s="46">
+        <v>2</v>
+      </c>
+      <c r="AV25" s="46">
+        <v>2</v>
+      </c>
+      <c r="AW25" s="46">
+        <v>2</v>
+      </c>
+      <c r="AX25" s="46">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="46">
         <v>4</v>
       </c>
-      <c r="V25" s="47">
+      <c r="AZ25" s="46">
         <v>4</v>
       </c>
-      <c r="W25" s="47">
+      <c r="BA25" s="46">
         <v>4</v>
       </c>
-      <c r="X25" s="47">
+      <c r="BB25" s="46">
         <v>4</v>
       </c>
-      <c r="Y25" s="47">
+      <c r="BC25" s="46">
         <v>4</v>
       </c>
-      <c r="Z25" s="47">
+      <c r="BD25" s="46">
         <v>4</v>
       </c>
-      <c r="AA25" s="47">
-        <v>8</v>
-      </c>
-      <c r="AB25" s="47">
-        <v>8</v>
-      </c>
-      <c r="AC25" s="47">
-        <v>8</v>
-      </c>
-      <c r="AD25" s="47">
-        <v>8</v>
-      </c>
-      <c r="AE25" s="47">
-        <v>8</v>
-      </c>
-      <c r="AF25" s="47">
-        <v>8</v>
-      </c>
-      <c r="AG25" s="47">
-        <v>8</v>
-      </c>
-      <c r="AH25" s="47">
+      <c r="BE25" s="46">
+        <v>4</v>
+      </c>
+      <c r="BF25" s="46">
+        <v>4</v>
+      </c>
+      <c r="BG25" s="46">
+        <v>4</v>
+      </c>
+      <c r="BH25" s="46">
+        <v>4</v>
+      </c>
+      <c r="BJ25" s="46">
         <v>0</v>
       </c>
-      <c r="AI25" s="47">
+      <c r="BK25" s="46">
         <v>0</v>
       </c>
-      <c r="AJ25" s="47">
+      <c r="BL25" s="46">
         <v>0</v>
       </c>
-      <c r="AK25" s="47">
-        <v>4</v>
-      </c>
-      <c r="AL25" s="47">
-        <v>4</v>
-      </c>
-      <c r="AM25" s="47">
-        <v>6</v>
-      </c>
-      <c r="AN25" s="47">
-        <v>6</v>
-      </c>
-      <c r="AO25" s="47">
-        <v>6</v>
-      </c>
-      <c r="AP25" s="47">
-        <v>2</v>
-      </c>
-      <c r="AQ25" s="47">
-        <v>2</v>
-      </c>
-      <c r="AR25" s="47">
-        <v>2</v>
-      </c>
-      <c r="AS25" s="47">
-        <v>2</v>
-      </c>
-      <c r="AT25" s="47">
-        <v>2</v>
-      </c>
-      <c r="AU25" s="47">
-        <v>2</v>
-      </c>
-      <c r="AV25" s="47">
+      <c r="BM25" s="46">
         <v>0</v>
       </c>
-      <c r="AW25" s="47">
+      <c r="BN25" s="46">
         <v>0</v>
       </c>
-      <c r="AX25" s="47">
-        <v>1</v>
-      </c>
-      <c r="AY25" s="47">
-        <v>1</v>
-      </c>
-      <c r="AZ25" s="47">
-        <v>1</v>
-      </c>
-      <c r="BA25" s="47">
-        <v>1</v>
-      </c>
-      <c r="BB25" s="47">
-        <v>1</v>
-      </c>
-      <c r="BC25" s="47">
-        <v>1</v>
-      </c>
-      <c r="BD25" s="47">
-        <v>1</v>
-      </c>
-      <c r="BE25" s="47">
-        <v>1</v>
-      </c>
-      <c r="BF25" s="47">
+      <c r="BO25" s="46">
         <v>0</v>
       </c>
-      <c r="BG25" s="47">
-        <v>0</v>
-      </c>
-      <c r="BH25" s="47">
-        <v>0</v>
-      </c>
-      <c r="BI25" s="47">
-        <v>0</v>
-      </c>
-      <c r="BJ25" s="47">
-        <v>0</v>
-      </c>
-      <c r="BK25" s="47">
-        <v>0</v>
-      </c>
-      <c r="BL25" s="47">
-        <v>0</v>
-      </c>
-      <c r="BM25" s="47">
-        <v>0</v>
-      </c>
-      <c r="BN25" s="47">
-        <v>0</v>
-      </c>
-      <c r="BO25" s="47">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="2:100" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:100" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="45">
         <v>0</v>
       </c>
       <c r="C26" s="45">
         <v>0</v>
       </c>
-      <c r="D26" s="49"/>
+      <c r="D26" s="48"/>
       <c r="E26" s="43">
         <v>0</v>
       </c>
@@ -8804,69 +8897,70 @@
       <c r="C27" s="45">
         <v>24</v>
       </c>
-      <c r="D27" s="75" t="s">
+      <c r="D27" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="54"/>
-      <c r="W27" s="54"/>
-      <c r="X27" s="54"/>
-      <c r="Y27" s="54"/>
-      <c r="Z27" s="54"/>
-      <c r="AA27" s="54"/>
-      <c r="AB27" s="54"/>
-      <c r="AC27" s="54"/>
-      <c r="AD27" s="54"/>
-      <c r="AE27" s="52"/>
-      <c r="AF27" s="51"/>
-      <c r="AG27" s="52"/>
-      <c r="AH27" s="51"/>
-      <c r="AI27" s="52"/>
-      <c r="AJ27" s="51"/>
-      <c r="AK27" s="52"/>
-      <c r="AL27" s="51"/>
-      <c r="AM27" s="52"/>
-      <c r="AN27" s="51"/>
-      <c r="AO27" s="52"/>
-      <c r="AP27" s="51"/>
-      <c r="AQ27" s="52"/>
-      <c r="AR27" s="51"/>
-      <c r="AS27" s="52"/>
-      <c r="AT27" s="51"/>
-      <c r="AU27" s="52"/>
-      <c r="AV27" s="51"/>
-      <c r="AW27" s="52"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="42"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="44"/>
+      <c r="AE27" s="41"/>
+      <c r="AF27" s="40"/>
+      <c r="AG27" s="41"/>
+      <c r="AH27" s="40"/>
+      <c r="AI27" s="41"/>
+      <c r="AJ27" s="40"/>
+      <c r="AK27" s="41"/>
+      <c r="AL27" s="40"/>
+      <c r="AM27" s="41"/>
+      <c r="AN27" s="40"/>
+      <c r="AO27" s="41"/>
+      <c r="AP27" s="40"/>
+      <c r="AQ27" s="41"/>
+      <c r="AR27" s="40"/>
+      <c r="AS27" s="41"/>
+      <c r="AT27" s="40"/>
+      <c r="AU27" s="41"/>
+      <c r="AV27" s="40"/>
+      <c r="AW27" s="50"/>
       <c r="AX27" s="51"/>
-      <c r="AY27" s="52"/>
+      <c r="AY27" s="50"/>
       <c r="AZ27" s="51"/>
-      <c r="BA27" s="52"/>
+      <c r="BA27" s="50"/>
       <c r="BB27" s="51"/>
-      <c r="BC27" s="52"/>
+      <c r="BC27" s="50"/>
       <c r="BD27" s="51"/>
-      <c r="BE27" s="52"/>
+      <c r="BE27" s="50"/>
       <c r="BF27" s="51"/>
-      <c r="BG27" s="52"/>
+      <c r="BG27" s="50"/>
       <c r="BH27" s="51"/>
-      <c r="BI27" s="52"/>
-      <c r="BJ27" s="51"/>
-      <c r="BK27" s="52"/>
-      <c r="BL27" s="55"/>
+      <c r="BI27" s="53"/>
+      <c r="BK27" s="51"/>
+      <c r="BL27">
+        <v>3</v>
+      </c>
       <c r="BM27" s="37"/>
       <c r="BN27" s="41"/>
       <c r="BO27" s="40"/>
@@ -8911,69 +9005,70 @@
       <c r="C28" s="45">
         <v>14</v>
       </c>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="56"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="42"/>
-      <c r="AA28" s="40"/>
-      <c r="AB28" s="41"/>
-      <c r="AC28" s="40"/>
-      <c r="AD28" s="41"/>
-      <c r="AE28" s="40"/>
-      <c r="AF28" s="41"/>
-      <c r="AG28" s="40"/>
-      <c r="AH28" s="41"/>
-      <c r="AI28" s="40"/>
-      <c r="AJ28" s="41"/>
-      <c r="AK28" s="40"/>
-      <c r="AL28" s="41"/>
-      <c r="AM28" s="40"/>
-      <c r="AN28" s="41"/>
-      <c r="AO28" s="40"/>
-      <c r="AP28" s="41"/>
-      <c r="AQ28" s="40"/>
-      <c r="AR28" s="41"/>
-      <c r="AS28" s="40"/>
-      <c r="AT28" s="41"/>
-      <c r="AU28" s="40"/>
-      <c r="AV28" s="41"/>
-      <c r="AW28" s="40"/>
-      <c r="AX28" s="41"/>
-      <c r="AY28" s="40"/>
-      <c r="AZ28" s="41"/>
-      <c r="BA28" s="40"/>
-      <c r="BB28" s="41"/>
-      <c r="BC28" s="40"/>
-      <c r="BD28" s="41"/>
-      <c r="BE28" s="40"/>
-      <c r="BF28" s="41"/>
-      <c r="BG28" s="40"/>
-      <c r="BH28" s="41"/>
-      <c r="BI28" s="40"/>
-      <c r="BJ28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="41"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="41"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="41"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="41"/>
+      <c r="AD28" s="40"/>
+      <c r="AE28" s="41"/>
+      <c r="AF28" s="40"/>
+      <c r="AG28" s="41"/>
+      <c r="AH28" s="40"/>
+      <c r="AI28" s="41"/>
+      <c r="AJ28" s="40"/>
+      <c r="AK28" s="41"/>
+      <c r="AL28" s="40"/>
+      <c r="AM28" s="41"/>
+      <c r="AN28" s="40"/>
+      <c r="AO28" s="41"/>
+      <c r="AP28" s="40"/>
+      <c r="AQ28" s="41"/>
+      <c r="AR28" s="40"/>
+      <c r="AS28" s="41"/>
+      <c r="AT28" s="40"/>
+      <c r="AU28" s="41"/>
+      <c r="AV28" s="40"/>
+      <c r="AW28" s="41"/>
+      <c r="AX28" s="40"/>
+      <c r="AY28" s="41"/>
+      <c r="AZ28" s="40"/>
+      <c r="BA28" s="41"/>
+      <c r="BB28" s="40"/>
+      <c r="BC28" s="41"/>
+      <c r="BD28" s="40"/>
+      <c r="BE28" s="41"/>
+      <c r="BF28" s="40"/>
+      <c r="BG28" s="41"/>
+      <c r="BH28" s="40"/>
+      <c r="BI28" s="55"/>
       <c r="BK28" s="40"/>
-      <c r="BL28" s="57"/>
+      <c r="BL28">
+        <v>5</v>
+      </c>
       <c r="BM28" s="37"/>
       <c r="BN28" s="41"/>
       <c r="BO28" s="40"/>
@@ -9018,12 +9113,12 @@
       <c r="C29" s="45">
         <v>14</v>
       </c>
-      <c r="D29" s="75" t="s">
+      <c r="D29" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="56"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="40"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="42"/>
       <c r="H29" s="42"/>
       <c r="I29" s="42"/>
       <c r="J29" s="42"/>
@@ -9044,43 +9139,44 @@
       <c r="Y29" s="44"/>
       <c r="Z29" s="44"/>
       <c r="AA29" s="44"/>
-      <c r="AB29" s="44"/>
-      <c r="AC29" s="44"/>
-      <c r="AD29" s="44"/>
-      <c r="AE29" s="44"/>
-      <c r="AF29" s="44"/>
-      <c r="AG29" s="44"/>
-      <c r="AH29" s="44"/>
-      <c r="AI29" s="44"/>
-      <c r="AJ29" s="44"/>
-      <c r="AK29" s="40"/>
-      <c r="AL29" s="41"/>
-      <c r="AM29" s="40"/>
-      <c r="AN29" s="41"/>
-      <c r="AO29" s="40"/>
-      <c r="AP29" s="41"/>
-      <c r="AQ29" s="40"/>
-      <c r="AR29" s="41"/>
-      <c r="AS29" s="40"/>
-      <c r="AT29" s="41"/>
-      <c r="AU29" s="40"/>
-      <c r="AV29" s="41"/>
-      <c r="AW29" s="40"/>
-      <c r="AX29" s="41"/>
-      <c r="AY29" s="40"/>
-      <c r="AZ29" s="41"/>
-      <c r="BA29" s="40"/>
-      <c r="BB29" s="41"/>
-      <c r="BC29" s="40"/>
-      <c r="BD29" s="41"/>
-      <c r="BE29" s="40"/>
-      <c r="BF29" s="41"/>
-      <c r="BG29" s="40"/>
-      <c r="BH29" s="41"/>
-      <c r="BI29" s="40"/>
-      <c r="BJ29" s="41"/>
+      <c r="AB29" s="40"/>
+      <c r="AC29" s="41"/>
+      <c r="AD29" s="40"/>
+      <c r="AE29" s="41"/>
+      <c r="AF29" s="40"/>
+      <c r="AG29" s="41"/>
+      <c r="AH29" s="40"/>
+      <c r="AI29" s="41"/>
+      <c r="AJ29" s="40"/>
+      <c r="AK29" s="41"/>
+      <c r="AL29" s="40"/>
+      <c r="AM29" s="41"/>
+      <c r="AN29" s="40"/>
+      <c r="AO29" s="41"/>
+      <c r="AP29" s="40"/>
+      <c r="AQ29" s="41"/>
+      <c r="AR29" s="40"/>
+      <c r="AS29" s="41"/>
+      <c r="AT29" s="40"/>
+      <c r="AU29" s="41"/>
+      <c r="AV29" s="40"/>
+      <c r="AW29" s="41"/>
+      <c r="AX29" s="40"/>
+      <c r="AY29" s="41"/>
+      <c r="AZ29" s="40"/>
+      <c r="BA29" s="41"/>
+      <c r="BB29" s="40"/>
+      <c r="BC29" s="41"/>
+      <c r="BD29" s="40"/>
+      <c r="BE29" s="41"/>
+      <c r="BF29" s="40"/>
+      <c r="BG29" s="41"/>
+      <c r="BH29" s="40"/>
+      <c r="BI29" s="55"/>
       <c r="BK29" s="40"/>
-      <c r="BL29" s="57"/>
+      <c r="BL29">
+        <v>9</v>
+      </c>
       <c r="BM29" s="37"/>
       <c r="BN29" s="41"/>
       <c r="BO29" s="40"/>
@@ -9125,69 +9221,70 @@
       <c r="C30" s="45">
         <v>21</v>
       </c>
-      <c r="D30" s="75" t="s">
+      <c r="D30" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="56"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="41"/>
-      <c r="W30" s="40"/>
-      <c r="X30" s="41"/>
-      <c r="Y30" s="40"/>
-      <c r="Z30" s="41"/>
-      <c r="AA30" s="42"/>
-      <c r="AB30" s="42"/>
-      <c r="AC30" s="42"/>
-      <c r="AD30" s="42"/>
-      <c r="AE30" s="42"/>
-      <c r="AF30" s="42"/>
-      <c r="AG30" s="42"/>
-      <c r="AH30" s="44"/>
-      <c r="AI30" s="44"/>
-      <c r="AJ30" s="44"/>
-      <c r="AK30" s="40"/>
-      <c r="AL30" s="41"/>
-      <c r="AM30" s="40"/>
-      <c r="AN30" s="41"/>
-      <c r="AO30" s="40"/>
-      <c r="AP30" s="41"/>
-      <c r="AQ30" s="40"/>
-      <c r="AR30" s="41"/>
-      <c r="AS30" s="40"/>
-      <c r="AT30" s="41"/>
-      <c r="AU30" s="40"/>
-      <c r="AV30" s="41"/>
-      <c r="AW30" s="40"/>
-      <c r="AX30" s="41"/>
-      <c r="AY30" s="40"/>
-      <c r="AZ30" s="41"/>
-      <c r="BA30" s="40"/>
-      <c r="BB30" s="41"/>
-      <c r="BC30" s="40"/>
-      <c r="BD30" s="41"/>
-      <c r="BE30" s="40"/>
-      <c r="BF30" s="41"/>
-      <c r="BG30" s="40"/>
-      <c r="BH30" s="41"/>
-      <c r="BI30" s="40"/>
-      <c r="BJ30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="44"/>
+      <c r="Z30" s="44"/>
+      <c r="AA30" s="44"/>
+      <c r="AB30" s="40"/>
+      <c r="AC30" s="41"/>
+      <c r="AD30" s="40"/>
+      <c r="AE30" s="41"/>
+      <c r="AF30" s="40"/>
+      <c r="AG30" s="41"/>
+      <c r="AH30" s="40"/>
+      <c r="AI30" s="41"/>
+      <c r="AJ30" s="40"/>
+      <c r="AK30" s="41"/>
+      <c r="AL30" s="40"/>
+      <c r="AM30" s="41"/>
+      <c r="AN30" s="40"/>
+      <c r="AO30" s="41"/>
+      <c r="AP30" s="40"/>
+      <c r="AQ30" s="41"/>
+      <c r="AR30" s="40"/>
+      <c r="AS30" s="41"/>
+      <c r="AT30" s="40"/>
+      <c r="AU30" s="41"/>
+      <c r="AV30" s="40"/>
+      <c r="AW30" s="41"/>
+      <c r="AX30" s="40"/>
+      <c r="AY30" s="41"/>
+      <c r="AZ30" s="40"/>
+      <c r="BA30" s="41"/>
+      <c r="BB30" s="40"/>
+      <c r="BC30" s="41"/>
+      <c r="BD30" s="40"/>
+      <c r="BE30" s="41"/>
+      <c r="BF30" s="40"/>
+      <c r="BG30" s="41"/>
+      <c r="BH30" s="40"/>
+      <c r="BI30" s="55"/>
       <c r="BK30" s="40"/>
-      <c r="BL30" s="57"/>
+      <c r="BL30">
+        <v>4</v>
+      </c>
       <c r="BM30" s="37"/>
       <c r="BN30" s="41"/>
       <c r="BO30" s="40"/>
@@ -9232,69 +9329,70 @@
       <c r="C31" s="45">
         <v>9</v>
       </c>
-      <c r="D31" s="75" t="s">
+      <c r="D31" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="56"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="44"/>
-      <c r="Z31" s="44"/>
-      <c r="AA31" s="40"/>
-      <c r="AB31" s="41"/>
-      <c r="AC31" s="40"/>
-      <c r="AD31" s="41"/>
-      <c r="AE31" s="40"/>
-      <c r="AF31" s="41"/>
-      <c r="AG31" s="40"/>
-      <c r="AH31" s="41"/>
-      <c r="AI31" s="40"/>
-      <c r="AJ31" s="41"/>
-      <c r="AK31" s="40"/>
-      <c r="AL31" s="41"/>
-      <c r="AM31" s="40"/>
-      <c r="AN31" s="41"/>
-      <c r="AO31" s="40"/>
-      <c r="AP31" s="41"/>
-      <c r="AQ31" s="40"/>
-      <c r="AR31" s="41"/>
-      <c r="AS31" s="40"/>
-      <c r="AT31" s="41"/>
-      <c r="AU31" s="40"/>
-      <c r="AV31" s="41"/>
-      <c r="AW31" s="40"/>
-      <c r="AX31" s="41"/>
-      <c r="AY31" s="40"/>
-      <c r="AZ31" s="41"/>
-      <c r="BA31" s="40"/>
-      <c r="BB31" s="41"/>
-      <c r="BC31" s="40"/>
-      <c r="BD31" s="41"/>
-      <c r="BE31" s="40"/>
-      <c r="BF31" s="41"/>
-      <c r="BG31" s="40"/>
-      <c r="BH31" s="41"/>
-      <c r="BI31" s="40"/>
-      <c r="BJ31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="41"/>
+      <c r="AB31" s="40"/>
+      <c r="AC31" s="41"/>
+      <c r="AD31" s="40"/>
+      <c r="AE31" s="41"/>
+      <c r="AF31" s="40"/>
+      <c r="AG31" s="41"/>
+      <c r="AH31" s="40"/>
+      <c r="AI31" s="41"/>
+      <c r="AJ31" s="40"/>
+      <c r="AK31" s="41"/>
+      <c r="AL31" s="40"/>
+      <c r="AM31" s="41"/>
+      <c r="AN31" s="40"/>
+      <c r="AO31" s="41"/>
+      <c r="AP31" s="40"/>
+      <c r="AQ31" s="41"/>
+      <c r="AR31" s="40"/>
+      <c r="AS31" s="41"/>
+      <c r="AT31" s="40"/>
+      <c r="AU31" s="41"/>
+      <c r="AV31" s="40"/>
+      <c r="AW31" s="41"/>
+      <c r="AX31" s="40"/>
+      <c r="AY31" s="41"/>
+      <c r="AZ31" s="40"/>
+      <c r="BA31" s="41"/>
+      <c r="BB31" s="40"/>
+      <c r="BC31" s="41"/>
+      <c r="BD31" s="40"/>
+      <c r="BE31" s="41"/>
+      <c r="BF31" s="40"/>
+      <c r="BG31" s="41"/>
+      <c r="BH31" s="40"/>
+      <c r="BI31" s="55"/>
       <c r="BK31" s="40"/>
-      <c r="BL31" s="57"/>
+      <c r="BL31">
+        <v>0</v>
+      </c>
       <c r="BM31" s="37"/>
       <c r="BN31" s="41"/>
       <c r="BO31" s="40"/>
@@ -9339,69 +9437,70 @@
       <c r="C32" s="45">
         <v>30</v>
       </c>
-      <c r="D32" s="75" t="s">
+      <c r="D32" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="56"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="40"/>
-      <c r="X32" s="41"/>
-      <c r="Y32" s="40"/>
-      <c r="Z32" s="41"/>
-      <c r="AA32" s="40"/>
-      <c r="AB32" s="41"/>
-      <c r="AC32" s="40"/>
-      <c r="AD32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="40"/>
+      <c r="AC32" s="41"/>
+      <c r="AD32" s="40"/>
       <c r="AE32" s="42"/>
       <c r="AF32" s="42"/>
       <c r="AG32" s="42"/>
       <c r="AH32" s="42"/>
       <c r="AI32" s="42"/>
       <c r="AJ32" s="42"/>
-      <c r="AK32" s="42"/>
+      <c r="AK32" s="44"/>
       <c r="AL32" s="44"/>
       <c r="AM32" s="44"/>
-      <c r="AN32" s="41"/>
-      <c r="AO32" s="40"/>
-      <c r="AP32" s="41"/>
-      <c r="AQ32" s="40"/>
-      <c r="AR32" s="41"/>
-      <c r="AS32" s="40"/>
-      <c r="AT32" s="41"/>
-      <c r="AU32" s="40"/>
-      <c r="AV32" s="41"/>
-      <c r="AW32" s="40"/>
-      <c r="AX32" s="41"/>
-      <c r="AY32" s="40"/>
-      <c r="AZ32" s="41"/>
-      <c r="BA32" s="40"/>
-      <c r="BB32" s="41"/>
-      <c r="BC32" s="40"/>
-      <c r="BD32" s="41"/>
-      <c r="BE32" s="40"/>
-      <c r="BF32" s="41"/>
-      <c r="BG32" s="40"/>
-      <c r="BH32" s="41"/>
-      <c r="BI32" s="40"/>
-      <c r="BJ32" s="41"/>
+      <c r="AN32" s="44"/>
+      <c r="AO32" s="41"/>
+      <c r="AP32" s="40"/>
+      <c r="AQ32" s="41"/>
+      <c r="AR32" s="40"/>
+      <c r="AS32" s="41"/>
+      <c r="AT32" s="40"/>
+      <c r="AU32" s="41"/>
+      <c r="AV32" s="40"/>
+      <c r="AW32" s="41"/>
+      <c r="AX32" s="40"/>
+      <c r="AY32" s="41"/>
+      <c r="AZ32" s="40"/>
+      <c r="BA32" s="41"/>
+      <c r="BB32" s="40"/>
+      <c r="BC32" s="41"/>
+      <c r="BD32" s="40"/>
+      <c r="BE32" s="41"/>
+      <c r="BF32" s="40"/>
+      <c r="BG32" s="41"/>
+      <c r="BH32" s="40"/>
+      <c r="BI32" s="55"/>
       <c r="BK32" s="40"/>
-      <c r="BL32" s="57"/>
+      <c r="BL32">
+        <v>4</v>
+      </c>
       <c r="BM32" s="37"/>
       <c r="BN32" s="41"/>
       <c r="BO32" s="40"/>
@@ -9446,73 +9545,76 @@
       <c r="C33" s="45">
         <v>4</v>
       </c>
-      <c r="D33" s="75" t="s">
+      <c r="D33" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="56"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="40"/>
-      <c r="X33" s="41"/>
-      <c r="Y33" s="40"/>
-      <c r="Z33" s="41"/>
-      <c r="AA33" s="40"/>
-      <c r="AB33" s="41"/>
-      <c r="AC33" s="40"/>
-      <c r="AD33" s="41"/>
-      <c r="AE33" s="40"/>
-      <c r="AF33" s="41"/>
-      <c r="AG33" s="40"/>
-      <c r="AH33" s="41"/>
-      <c r="AI33" s="40"/>
-      <c r="AJ33" s="41"/>
-      <c r="AK33" s="40"/>
-      <c r="AL33" s="41"/>
-      <c r="AM33" s="40"/>
-      <c r="AN33" s="41"/>
-      <c r="AO33" s="40"/>
-      <c r="AP33" s="41"/>
-      <c r="AQ33" s="40"/>
-      <c r="AR33" s="41"/>
-      <c r="AS33" s="40"/>
-      <c r="AT33" s="41"/>
-      <c r="AU33" s="40"/>
-      <c r="AV33" s="41"/>
-      <c r="AW33" s="40"/>
-      <c r="AX33" s="41"/>
-      <c r="AY33" s="40"/>
-      <c r="AZ33" s="41"/>
-      <c r="BA33" s="40"/>
-      <c r="BB33" s="41"/>
-      <c r="BC33" s="40"/>
-      <c r="BD33" s="41"/>
-      <c r="BE33" s="40"/>
-      <c r="BF33" s="41"/>
-      <c r="BG33" s="40"/>
-      <c r="BH33" s="41"/>
-      <c r="BI33" s="40"/>
-      <c r="BJ33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="44"/>
+      <c r="AA33" s="44"/>
+      <c r="AB33" s="44"/>
+      <c r="AC33" s="44"/>
+      <c r="AD33" s="44"/>
+      <c r="AE33" s="44"/>
+      <c r="AF33" s="44"/>
+      <c r="AG33" s="44"/>
+      <c r="AH33" s="44"/>
+      <c r="AI33" s="44"/>
+      <c r="AJ33" s="44"/>
+      <c r="AK33" s="44"/>
+      <c r="AL33" s="44"/>
+      <c r="AM33" s="44"/>
+      <c r="AN33" s="44"/>
+      <c r="AO33" s="41"/>
+      <c r="AP33" s="40"/>
+      <c r="AQ33" s="41"/>
+      <c r="AR33" s="40"/>
+      <c r="AS33" s="41"/>
+      <c r="AT33" s="40"/>
+      <c r="AU33" s="41"/>
+      <c r="AV33" s="40"/>
+      <c r="AW33" s="41"/>
+      <c r="AX33" s="40"/>
+      <c r="AY33" s="41"/>
+      <c r="AZ33" s="40"/>
+      <c r="BA33" s="41"/>
+      <c r="BB33" s="40"/>
+      <c r="BC33" s="41"/>
+      <c r="BD33" s="40"/>
+      <c r="BE33" s="41"/>
+      <c r="BF33" s="40"/>
+      <c r="BG33" s="41"/>
+      <c r="BH33" s="40"/>
+      <c r="BI33" s="55"/>
       <c r="BK33" s="40"/>
-      <c r="BL33" s="57"/>
+      <c r="BL33">
+        <v>23</v>
+      </c>
       <c r="BM33" s="37"/>
       <c r="BN33" s="41"/>
       <c r="BO33" s="40"/>
-      <c r="BP33" s="35"/>
+      <c r="BP33" s="35">
+        <v>118</v>
+      </c>
       <c r="BQ33" s="40"/>
       <c r="BR33" s="41"/>
       <c r="BS33" s="40"/>
@@ -9553,13 +9655,13 @@
       <c r="C34" s="45">
         <v>8</v>
       </c>
-      <c r="D34" s="75" t="s">
+      <c r="D34" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="56"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
       <c r="I34" s="42"/>
       <c r="J34" s="42"/>
       <c r="K34" s="42"/>
@@ -9590,32 +9692,33 @@
       <c r="AJ34" s="44"/>
       <c r="AK34" s="44"/>
       <c r="AL34" s="44"/>
-      <c r="AM34" s="44"/>
-      <c r="AN34" s="44"/>
-      <c r="AO34" s="44"/>
-      <c r="AP34" s="44"/>
-      <c r="AQ34" s="44"/>
-      <c r="AR34" s="44"/>
-      <c r="AS34" s="44"/>
-      <c r="AT34" s="44"/>
-      <c r="AU34" s="44"/>
-      <c r="AV34" s="44"/>
-      <c r="AW34" s="44"/>
-      <c r="AX34" s="41"/>
-      <c r="AY34" s="40"/>
-      <c r="AZ34" s="41"/>
-      <c r="BA34" s="40"/>
-      <c r="BB34" s="41"/>
-      <c r="BC34" s="40"/>
-      <c r="BD34" s="41"/>
-      <c r="BE34" s="40"/>
-      <c r="BF34" s="41"/>
-      <c r="BG34" s="40"/>
-      <c r="BH34" s="41"/>
-      <c r="BI34" s="40"/>
-      <c r="BJ34" s="41"/>
+      <c r="AM34" s="41"/>
+      <c r="AN34" s="40"/>
+      <c r="AO34" s="41"/>
+      <c r="AP34" s="40"/>
+      <c r="AQ34" s="41"/>
+      <c r="AR34" s="40"/>
+      <c r="AS34" s="41"/>
+      <c r="AT34" s="40"/>
+      <c r="AU34" s="41"/>
+      <c r="AV34" s="40"/>
+      <c r="AW34" s="41"/>
+      <c r="AX34" s="40"/>
+      <c r="AY34" s="41"/>
+      <c r="AZ34" s="40"/>
+      <c r="BA34" s="41"/>
+      <c r="BB34" s="40"/>
+      <c r="BC34" s="41"/>
+      <c r="BD34" s="40"/>
+      <c r="BE34" s="41"/>
+      <c r="BF34" s="40"/>
+      <c r="BG34" s="41"/>
+      <c r="BH34" s="40"/>
+      <c r="BI34" s="55"/>
       <c r="BK34" s="40"/>
-      <c r="BL34" s="57"/>
+      <c r="BL34">
+        <v>26</v>
+      </c>
       <c r="BM34" s="37"/>
       <c r="BN34" s="41"/>
       <c r="BO34" s="40"/>
@@ -9660,69 +9763,70 @@
       <c r="C35" s="45">
         <v>35</v>
       </c>
-      <c r="D35" s="75" t="s">
+      <c r="D35" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="56"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="40"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="40"/>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="40"/>
-      <c r="AB35" s="41"/>
-      <c r="AC35" s="40"/>
-      <c r="AD35" s="41"/>
-      <c r="AE35" s="40"/>
-      <c r="AF35" s="41"/>
-      <c r="AG35" s="40"/>
-      <c r="AH35" s="41"/>
-      <c r="AI35" s="40"/>
-      <c r="AJ35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="40"/>
+      <c r="AA35" s="41"/>
+      <c r="AB35" s="42"/>
+      <c r="AC35" s="42"/>
+      <c r="AD35" s="42"/>
+      <c r="AE35" s="42"/>
+      <c r="AF35" s="42"/>
+      <c r="AG35" s="42"/>
+      <c r="AH35" s="42"/>
+      <c r="AI35" s="42"/>
+      <c r="AJ35" s="42"/>
       <c r="AK35" s="42"/>
-      <c r="AL35" s="42"/>
-      <c r="AM35" s="42"/>
-      <c r="AN35" s="42"/>
-      <c r="AO35" s="42"/>
-      <c r="AP35" s="44"/>
-      <c r="AQ35" s="44"/>
-      <c r="AR35" s="44"/>
-      <c r="AS35" s="44"/>
-      <c r="AT35" s="44"/>
-      <c r="AU35" s="44"/>
-      <c r="AV35" s="44"/>
-      <c r="AW35" s="44"/>
-      <c r="AX35" s="41"/>
-      <c r="AY35" s="40"/>
-      <c r="AZ35" s="41"/>
-      <c r="BA35" s="40"/>
-      <c r="BB35" s="41"/>
-      <c r="BC35" s="40"/>
-      <c r="BD35" s="41"/>
-      <c r="BE35" s="40"/>
-      <c r="BF35" s="41"/>
-      <c r="BG35" s="40"/>
-      <c r="BH35" s="41"/>
-      <c r="BI35" s="40"/>
-      <c r="BJ35" s="41"/>
+      <c r="AL35" s="44"/>
+      <c r="AM35" s="41"/>
+      <c r="AN35" s="40"/>
+      <c r="AO35" s="41"/>
+      <c r="AP35" s="40"/>
+      <c r="AQ35" s="41"/>
+      <c r="AR35" s="40"/>
+      <c r="AS35" s="41"/>
+      <c r="AT35" s="40"/>
+      <c r="AU35" s="41"/>
+      <c r="AV35" s="40"/>
+      <c r="AW35" s="41"/>
+      <c r="AX35" s="40"/>
+      <c r="AY35" s="41"/>
+      <c r="AZ35" s="40"/>
+      <c r="BA35" s="41"/>
+      <c r="BB35" s="40"/>
+      <c r="BC35" s="41"/>
+      <c r="BD35" s="40"/>
+      <c r="BE35" s="41"/>
+      <c r="BF35" s="40"/>
+      <c r="BG35" s="41"/>
+      <c r="BH35" s="40"/>
+      <c r="BI35" s="55"/>
       <c r="BK35" s="40"/>
-      <c r="BL35" s="57"/>
+      <c r="BL35">
+        <v>1</v>
+      </c>
       <c r="BM35" s="37"/>
       <c r="BN35" s="41"/>
       <c r="BO35" s="40"/>
@@ -9767,69 +9871,70 @@
       <c r="C36" s="45">
         <v>19</v>
       </c>
-      <c r="D36" s="75" t="s">
+      <c r="D36" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="56"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="41"/>
-      <c r="W36" s="40"/>
-      <c r="X36" s="41"/>
-      <c r="Y36" s="40"/>
-      <c r="Z36" s="41"/>
-      <c r="AA36" s="40"/>
-      <c r="AB36" s="41"/>
-      <c r="AC36" s="40"/>
-      <c r="AD36" s="41"/>
-      <c r="AE36" s="40"/>
-      <c r="AF36" s="41"/>
-      <c r="AG36" s="40"/>
-      <c r="AH36" s="41"/>
-      <c r="AI36" s="40"/>
-      <c r="AJ36" s="41"/>
-      <c r="AK36" s="40"/>
-      <c r="AL36" s="41"/>
-      <c r="AM36" s="40"/>
-      <c r="AN36" s="41"/>
-      <c r="AO36" s="40"/>
-      <c r="AP36" s="41"/>
-      <c r="AQ36" s="40"/>
-      <c r="AR36" s="41"/>
-      <c r="AS36" s="40"/>
-      <c r="AT36" s="41"/>
-      <c r="AU36" s="40"/>
-      <c r="AV36" s="41"/>
-      <c r="AW36" s="40"/>
-      <c r="AX36" s="41"/>
-      <c r="AY36" s="40"/>
-      <c r="AZ36" s="41"/>
-      <c r="BA36" s="40"/>
-      <c r="BB36" s="41"/>
-      <c r="BC36" s="40"/>
-      <c r="BD36" s="41"/>
-      <c r="BE36" s="40"/>
-      <c r="BF36" s="41"/>
-      <c r="BG36" s="40"/>
-      <c r="BH36" s="41"/>
-      <c r="BI36" s="40"/>
-      <c r="BJ36" s="41"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="41"/>
+      <c r="X36" s="40"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="40"/>
+      <c r="AA36" s="41"/>
+      <c r="AB36" s="40"/>
+      <c r="AC36" s="41"/>
+      <c r="AD36" s="40"/>
+      <c r="AE36" s="41"/>
+      <c r="AF36" s="40"/>
+      <c r="AG36" s="41"/>
+      <c r="AH36" s="40"/>
+      <c r="AI36" s="41"/>
+      <c r="AJ36" s="40"/>
+      <c r="AK36" s="41"/>
+      <c r="AL36" s="40"/>
+      <c r="AM36" s="41"/>
+      <c r="AN36" s="40"/>
+      <c r="AO36" s="41"/>
+      <c r="AP36" s="40"/>
+      <c r="AQ36" s="41"/>
+      <c r="AR36" s="40"/>
+      <c r="AS36" s="41"/>
+      <c r="AT36" s="40"/>
+      <c r="AU36" s="41"/>
+      <c r="AV36" s="40"/>
+      <c r="AW36" s="41"/>
+      <c r="AX36" s="40"/>
+      <c r="AY36" s="41"/>
+      <c r="AZ36" s="40"/>
+      <c r="BA36" s="41"/>
+      <c r="BB36" s="40"/>
+      <c r="BC36" s="41"/>
+      <c r="BD36" s="40"/>
+      <c r="BE36" s="41"/>
+      <c r="BF36" s="40"/>
+      <c r="BG36" s="41"/>
+      <c r="BH36" s="40"/>
+      <c r="BI36" s="55"/>
       <c r="BK36" s="40"/>
-      <c r="BL36" s="57"/>
+      <c r="BL36">
+        <v>0</v>
+      </c>
       <c r="BM36" s="37"/>
       <c r="BN36" s="41"/>
       <c r="BO36" s="40"/>
@@ -9874,45 +9979,45 @@
       <c r="C37" s="45">
         <v>34</v>
       </c>
-      <c r="D37" s="75" t="s">
+      <c r="D37" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="56"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="40"/>
-      <c r="V37" s="41"/>
-      <c r="W37" s="40"/>
-      <c r="X37" s="41"/>
-      <c r="Y37" s="40"/>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="40"/>
-      <c r="AB37" s="41"/>
-      <c r="AC37" s="40"/>
-      <c r="AD37" s="41"/>
-      <c r="AE37" s="40"/>
-      <c r="AF37" s="41"/>
-      <c r="AG37" s="40"/>
-      <c r="AH37" s="41"/>
-      <c r="AI37" s="40"/>
-      <c r="AJ37" s="41"/>
-      <c r="AK37" s="40"/>
-      <c r="AL37" s="41"/>
-      <c r="AM37" s="42"/>
-      <c r="AN37" s="42"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="41"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="41"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="41"/>
+      <c r="Z37" s="40"/>
+      <c r="AA37" s="41"/>
+      <c r="AB37" s="40"/>
+      <c r="AC37" s="41"/>
+      <c r="AD37" s="40"/>
+      <c r="AE37" s="41"/>
+      <c r="AF37" s="40"/>
+      <c r="AG37" s="41"/>
+      <c r="AH37" s="40"/>
+      <c r="AI37" s="41"/>
+      <c r="AJ37" s="40"/>
+      <c r="AK37" s="41"/>
+      <c r="AL37" s="40"/>
+      <c r="AM37" s="41"/>
+      <c r="AN37" s="40"/>
       <c r="AO37" s="42"/>
       <c r="AP37" s="42"/>
       <c r="AQ37" s="42"/>
@@ -9920,8 +10025,8 @@
       <c r="AS37" s="42"/>
       <c r="AT37" s="42"/>
       <c r="AU37" s="42"/>
-      <c r="AV37" s="44"/>
-      <c r="AW37" s="44"/>
+      <c r="AV37" s="42"/>
+      <c r="AW37" s="42"/>
       <c r="AX37" s="44"/>
       <c r="AY37" s="44"/>
       <c r="AZ37" s="44"/>
@@ -9933,10 +10038,11 @@
       <c r="BF37" s="44"/>
       <c r="BG37" s="44"/>
       <c r="BH37" s="44"/>
-      <c r="BI37" s="44"/>
-      <c r="BJ37" s="44"/>
-      <c r="BK37" s="44"/>
-      <c r="BL37" s="57"/>
+      <c r="BI37" s="55"/>
+      <c r="BK37" s="40"/>
+      <c r="BL37" s="73">
+        <v>11</v>
+      </c>
       <c r="BM37" s="37"/>
       <c r="BN37" s="41"/>
       <c r="BO37" s="40"/>
@@ -9981,69 +10087,70 @@
       <c r="C38" s="45">
         <v>5</v>
       </c>
-      <c r="D38" s="75" t="s">
+      <c r="D38" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="58"/>
+      <c r="E38" s="41"/>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="41"/>
-      <c r="W38" s="40"/>
-      <c r="X38" s="41"/>
-      <c r="Y38" s="40"/>
-      <c r="Z38" s="41"/>
-      <c r="AA38" s="40"/>
-      <c r="AB38" s="41"/>
-      <c r="AC38" s="40"/>
-      <c r="AD38" s="41"/>
-      <c r="AE38" s="40"/>
-      <c r="AF38" s="41"/>
-      <c r="AG38" s="40"/>
-      <c r="AH38" s="41"/>
-      <c r="AI38" s="40"/>
-      <c r="AJ38" s="41"/>
-      <c r="AK38" s="40"/>
-      <c r="AL38" s="41"/>
-      <c r="AM38" s="40"/>
-      <c r="AN38" s="41"/>
-      <c r="AO38" s="40"/>
-      <c r="AP38" s="41"/>
-      <c r="AQ38" s="40"/>
-      <c r="AR38" s="41"/>
-      <c r="AS38" s="40"/>
-      <c r="AT38" s="41"/>
-      <c r="AU38" s="40"/>
-      <c r="AV38" s="41"/>
-      <c r="AW38" s="40"/>
-      <c r="AX38" s="41"/>
-      <c r="AY38" s="40"/>
-      <c r="AZ38" s="41"/>
-      <c r="BA38" s="40"/>
-      <c r="BB38" s="41"/>
-      <c r="BC38" s="40"/>
-      <c r="BD38" s="41"/>
-      <c r="BE38" s="40"/>
-      <c r="BF38" s="41"/>
-      <c r="BG38" s="40"/>
-      <c r="BH38" s="41"/>
-      <c r="BI38" s="40"/>
-      <c r="BJ38" s="41"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="44"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="44"/>
+      <c r="X38" s="44"/>
+      <c r="Y38" s="44"/>
+      <c r="Z38" s="44"/>
+      <c r="AA38" s="44"/>
+      <c r="AB38" s="44"/>
+      <c r="AC38" s="44"/>
+      <c r="AD38" s="44"/>
+      <c r="AE38" s="44"/>
+      <c r="AF38" s="44"/>
+      <c r="AG38" s="44"/>
+      <c r="AH38" s="44"/>
+      <c r="AI38" s="44"/>
+      <c r="AJ38" s="44"/>
+      <c r="AK38" s="44"/>
+      <c r="AL38" s="44"/>
+      <c r="AM38" s="44"/>
+      <c r="AN38" s="44"/>
+      <c r="AO38" s="44"/>
+      <c r="AP38" s="44"/>
+      <c r="AQ38" s="44"/>
+      <c r="AR38" s="44"/>
+      <c r="AS38" s="44"/>
+      <c r="AT38" s="44"/>
+      <c r="AU38" s="44"/>
+      <c r="AV38" s="44"/>
+      <c r="AW38" s="44"/>
+      <c r="AX38" s="44"/>
+      <c r="AY38" s="41"/>
+      <c r="AZ38" s="40"/>
+      <c r="BA38" s="41"/>
+      <c r="BB38" s="40"/>
+      <c r="BC38" s="41"/>
+      <c r="BD38" s="40"/>
+      <c r="BE38" s="41"/>
+      <c r="BF38" s="40"/>
+      <c r="BG38" s="41"/>
+      <c r="BH38" s="40"/>
+      <c r="BI38" s="55"/>
       <c r="BK38" s="40"/>
-      <c r="BL38" s="57"/>
+      <c r="BL38">
+        <v>40</v>
+      </c>
       <c r="BM38" s="37"/>
       <c r="BN38" s="41"/>
       <c r="BO38" s="40"/>
@@ -10088,69 +10195,70 @@
       <c r="C39" s="45">
         <v>46</v>
       </c>
-      <c r="D39" s="75" t="s">
+      <c r="D39" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="56"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="40"/>
-      <c r="V39" s="41"/>
-      <c r="W39" s="40"/>
-      <c r="X39" s="41"/>
-      <c r="Y39" s="40"/>
-      <c r="Z39" s="41"/>
-      <c r="AA39" s="40"/>
-      <c r="AB39" s="41"/>
-      <c r="AC39" s="40"/>
-      <c r="AD39" s="41"/>
-      <c r="AE39" s="40"/>
-      <c r="AF39" s="41"/>
-      <c r="AG39" s="40"/>
-      <c r="AH39" s="41"/>
-      <c r="AI39" s="40"/>
-      <c r="AJ39" s="41"/>
-      <c r="AK39" s="40"/>
-      <c r="AL39" s="41"/>
-      <c r="AM39" s="40"/>
-      <c r="AN39" s="41"/>
-      <c r="AO39" s="40"/>
-      <c r="AP39" s="41"/>
-      <c r="AQ39" s="40"/>
-      <c r="AR39" s="41"/>
-      <c r="AS39" s="40"/>
-      <c r="AT39" s="41"/>
-      <c r="AU39" s="40"/>
-      <c r="AV39" s="41"/>
-      <c r="AW39" s="40"/>
-      <c r="AX39" s="42"/>
-      <c r="AY39" s="42"/>
-      <c r="AZ39" s="42"/>
-      <c r="BA39" s="42"/>
-      <c r="BB39" s="42"/>
-      <c r="BC39" s="42"/>
-      <c r="BD39" s="42"/>
-      <c r="BE39" s="42"/>
-      <c r="BF39" s="44"/>
-      <c r="BG39" s="44"/>
-      <c r="BH39" s="44"/>
-      <c r="BI39" s="44"/>
-      <c r="BJ39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="40"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="40"/>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="40"/>
+      <c r="AA39" s="41"/>
+      <c r="AB39" s="40"/>
+      <c r="AC39" s="41"/>
+      <c r="AD39" s="40"/>
+      <c r="AE39" s="41"/>
+      <c r="AF39" s="40"/>
+      <c r="AG39" s="41"/>
+      <c r="AH39" s="40"/>
+      <c r="AI39" s="41"/>
+      <c r="AJ39" s="40"/>
+      <c r="AK39" s="41"/>
+      <c r="AL39" s="40"/>
+      <c r="AM39" s="42"/>
+      <c r="AN39" s="42"/>
+      <c r="AO39" s="42"/>
+      <c r="AP39" s="42"/>
+      <c r="AQ39" s="42"/>
+      <c r="AR39" s="42"/>
+      <c r="AS39" s="42"/>
+      <c r="AT39" s="42"/>
+      <c r="AU39" s="44"/>
+      <c r="AV39" s="44"/>
+      <c r="AW39" s="44"/>
+      <c r="AX39" s="44"/>
+      <c r="AY39" s="41"/>
+      <c r="AZ39" s="40"/>
+      <c r="BA39" s="41"/>
+      <c r="BB39" s="40"/>
+      <c r="BC39" s="41"/>
+      <c r="BD39" s="40"/>
+      <c r="BE39" s="41"/>
+      <c r="BF39" s="40"/>
+      <c r="BG39" s="41"/>
+      <c r="BH39" s="40"/>
+      <c r="BI39" s="55"/>
       <c r="BK39" s="40"/>
-      <c r="BL39" s="57"/>
+      <c r="BL39">
+        <v>4</v>
+      </c>
       <c r="BM39" s="37"/>
       <c r="BN39" s="41"/>
       <c r="BO39" s="40"/>
@@ -10195,69 +10303,67 @@
       <c r="C40" s="45">
         <v>55</v>
       </c>
-      <c r="D40" s="75" t="s">
+      <c r="D40" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="59"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="61"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="61"/>
-      <c r="N40" s="60"/>
-      <c r="O40" s="61"/>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="61"/>
-      <c r="R40" s="60"/>
-      <c r="S40" s="61"/>
-      <c r="T40" s="60"/>
-      <c r="U40" s="61"/>
-      <c r="V40" s="60"/>
-      <c r="W40" s="61"/>
-      <c r="X40" s="60"/>
-      <c r="Y40" s="61"/>
-      <c r="Z40" s="60"/>
-      <c r="AA40" s="61"/>
-      <c r="AB40" s="60"/>
-      <c r="AC40" s="61"/>
-      <c r="AD40" s="60"/>
-      <c r="AE40" s="61"/>
-      <c r="AF40" s="60"/>
-      <c r="AG40" s="61"/>
-      <c r="AH40" s="60"/>
-      <c r="AI40" s="61"/>
-      <c r="AJ40" s="60"/>
-      <c r="AK40" s="61"/>
-      <c r="AL40" s="60"/>
-      <c r="AM40" s="61"/>
-      <c r="AN40" s="60"/>
-      <c r="AO40" s="61"/>
-      <c r="AP40" s="60"/>
-      <c r="AQ40" s="61"/>
-      <c r="AR40" s="60"/>
-      <c r="AS40" s="61"/>
-      <c r="AT40" s="60"/>
-      <c r="AU40" s="61"/>
-      <c r="AV40" s="60"/>
-      <c r="AW40" s="61"/>
-      <c r="AX40" s="60"/>
-      <c r="AY40" s="61"/>
-      <c r="AZ40" s="60"/>
-      <c r="BA40" s="61"/>
-      <c r="BB40" s="60"/>
-      <c r="BC40" s="61"/>
-      <c r="BD40" s="60"/>
-      <c r="BE40" s="61"/>
-      <c r="BF40" s="60"/>
-      <c r="BG40" s="61"/>
-      <c r="BH40" s="60"/>
-      <c r="BI40" s="61"/>
-      <c r="BJ40" s="62"/>
-      <c r="BK40" s="63"/>
-      <c r="BL40" s="64"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="78"/>
+      <c r="O40" s="77"/>
+      <c r="P40" s="78"/>
+      <c r="Q40" s="77"/>
+      <c r="R40" s="78"/>
+      <c r="S40" s="77"/>
+      <c r="T40" s="78"/>
+      <c r="U40" s="77"/>
+      <c r="V40" s="78"/>
+      <c r="W40" s="77"/>
+      <c r="X40" s="78"/>
+      <c r="Y40" s="77"/>
+      <c r="Z40" s="78"/>
+      <c r="AA40" s="77"/>
+      <c r="AB40" s="78"/>
+      <c r="AC40" s="77"/>
+      <c r="AD40" s="78"/>
+      <c r="AE40" s="77"/>
+      <c r="AF40" s="78"/>
+      <c r="AG40" s="77"/>
+      <c r="AH40" s="78"/>
+      <c r="AI40" s="77"/>
+      <c r="AJ40" s="78"/>
+      <c r="AK40" s="77"/>
+      <c r="AL40" s="78"/>
+      <c r="AM40" s="77"/>
+      <c r="AN40" s="78"/>
+      <c r="AO40" s="77"/>
+      <c r="AP40" s="78"/>
+      <c r="AQ40" s="77"/>
+      <c r="AR40" s="78"/>
+      <c r="AS40" s="77"/>
+      <c r="AT40" s="78"/>
+      <c r="AU40" s="77"/>
+      <c r="AV40" s="78"/>
+      <c r="AW40" s="77"/>
+      <c r="AX40" s="78"/>
+      <c r="AY40" s="70"/>
+      <c r="AZ40" s="70"/>
+      <c r="BA40" s="70"/>
+      <c r="BB40" s="70"/>
+      <c r="BC40" s="70"/>
+      <c r="BD40" s="70"/>
+      <c r="BE40" s="70"/>
+      <c r="BF40" s="70"/>
+      <c r="BG40" s="70"/>
+      <c r="BH40" s="70"/>
+      <c r="BI40" s="81"/>
+      <c r="BK40" s="40"/>
       <c r="BM40" s="37"/>
       <c r="BN40" s="41"/>
       <c r="BO40" s="40"/>
@@ -10302,10 +10408,10 @@
       <c r="C41" s="45">
         <v>56</v>
       </c>
-      <c r="D41" s="76" t="s">
+      <c r="D41" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="65">
+      <c r="E41" s="84">
         <v>0</v>
       </c>
       <c r="F41" s="33">
@@ -10473,17 +10579,14 @@
       <c r="BH41" s="33">
         <v>55</v>
       </c>
-      <c r="BI41" s="33">
+      <c r="BI41" s="34">
         <v>56</v>
       </c>
-      <c r="BJ41" s="33">
+      <c r="BJ41" s="34">
         <v>57</v>
       </c>
       <c r="BK41" s="33">
         <v>58</v>
-      </c>
-      <c r="BL41" s="34">
-        <v>59</v>
       </c>
       <c r="BM41" s="33">
         <v>60</v>
@@ -10536,330 +10639,353 @@
       <c r="CC41" s="34"/>
     </row>
     <row r="42" spans="2:100" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D42" s="92"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="93"/>
-      <c r="I42" s="93"/>
-      <c r="J42" s="93"/>
-      <c r="K42" s="93"/>
-      <c r="L42" s="93"/>
-      <c r="M42" s="93"/>
-      <c r="N42" s="93"/>
-      <c r="O42" s="93"/>
-      <c r="P42" s="93"/>
-      <c r="Q42" s="93"/>
-      <c r="R42" s="93"/>
-      <c r="S42" s="93"/>
-      <c r="T42" s="69"/>
-      <c r="U42" s="88" t="s">
+      <c r="D42" s="98"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="99"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="99"/>
+      <c r="M42" s="99"/>
+      <c r="N42" s="99"/>
+      <c r="O42" s="99"/>
+      <c r="P42" s="99"/>
+      <c r="Q42" s="99"/>
+      <c r="R42" s="99"/>
+      <c r="S42" s="99"/>
+      <c r="T42" s="57"/>
+      <c r="U42" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="V42" s="88"/>
-      <c r="W42" s="88"/>
-      <c r="X42" s="88"/>
-      <c r="Y42" s="88"/>
-      <c r="Z42" s="88"/>
-      <c r="AA42" s="88"/>
-      <c r="AB42" s="88"/>
-      <c r="AC42" s="88"/>
-      <c r="AD42" s="88"/>
-      <c r="AE42" s="88"/>
-      <c r="AF42" s="88"/>
-      <c r="AG42" s="88"/>
-      <c r="AH42" s="88"/>
-      <c r="AI42" s="77"/>
-      <c r="AJ42" s="88" t="s">
+      <c r="V42" s="97"/>
+      <c r="W42" s="97"/>
+      <c r="X42" s="97"/>
+      <c r="Y42" s="97"/>
+      <c r="Z42" s="97"/>
+      <c r="AA42" s="97"/>
+      <c r="AB42" s="97"/>
+      <c r="AC42" s="97"/>
+      <c r="AD42" s="97"/>
+      <c r="AE42" s="97"/>
+      <c r="AF42" s="97"/>
+      <c r="AG42" s="97"/>
+      <c r="AH42" s="97"/>
+      <c r="AI42" s="83"/>
+      <c r="AJ42" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="AK42" s="88"/>
-      <c r="AL42" s="88"/>
-      <c r="AM42" s="88"/>
-      <c r="AN42" s="88"/>
-      <c r="AO42" s="88"/>
-      <c r="AP42" s="88"/>
-      <c r="AQ42" s="88"/>
-      <c r="AR42" s="88"/>
-      <c r="AS42" s="88"/>
-      <c r="AT42" s="88"/>
-      <c r="AU42" s="88"/>
-      <c r="AV42" s="88"/>
-      <c r="AW42" s="88"/>
-      <c r="AX42" s="88"/>
-      <c r="AY42" s="88"/>
-      <c r="AZ42" s="88"/>
-      <c r="BA42" s="88"/>
-      <c r="BB42" s="88"/>
-      <c r="BC42" s="88"/>
-      <c r="BD42" s="88"/>
-      <c r="BE42" s="88"/>
-      <c r="BF42" s="88"/>
-      <c r="BG42" s="88"/>
-      <c r="BH42" s="88"/>
-      <c r="BI42" s="88"/>
-      <c r="BJ42" s="88"/>
-      <c r="BK42" s="88"/>
-      <c r="BL42" s="91"/>
+      <c r="AK42" s="97"/>
+      <c r="AL42" s="97"/>
+      <c r="AM42" s="97"/>
+      <c r="AN42" s="97"/>
+      <c r="AO42" s="97"/>
+      <c r="AP42" s="97"/>
+      <c r="AQ42" s="97"/>
+      <c r="AR42" s="97"/>
+      <c r="AS42" s="97"/>
+      <c r="AT42" s="97"/>
+      <c r="AU42" s="97"/>
+      <c r="AV42" s="97"/>
+      <c r="AW42" s="97"/>
+      <c r="AX42" s="97"/>
+      <c r="AY42" s="97"/>
+      <c r="AZ42" s="97"/>
+      <c r="BA42" s="97"/>
+      <c r="BB42" s="97"/>
+      <c r="BC42" s="97"/>
+      <c r="BD42" s="97"/>
+      <c r="BE42" s="97"/>
+      <c r="BF42" s="97"/>
+      <c r="BG42" s="97"/>
+      <c r="BH42" s="97"/>
+      <c r="BI42" s="102"/>
+      <c r="BJ42" s="72"/>
+      <c r="BK42" s="71"/>
     </row>
     <row r="43" spans="2:100" s="31" customFormat="1" ht="11.5" x14ac:dyDescent="0.3">
-      <c r="E43" s="47">
+      <c r="E43" s="46">
+        <v>13</v>
+      </c>
+      <c r="F43" s="46">
+        <v>13</v>
+      </c>
+      <c r="G43" s="46">
+        <v>13</v>
+      </c>
+      <c r="H43" s="46">
+        <v>13</v>
+      </c>
+      <c r="I43" s="46">
+        <v>13</v>
+      </c>
+      <c r="J43" s="46">
+        <v>13</v>
+      </c>
+      <c r="K43" s="46">
+        <v>9</v>
+      </c>
+      <c r="L43" s="46">
+        <v>4</v>
+      </c>
+      <c r="M43" s="46">
+        <v>4</v>
+      </c>
+      <c r="N43" s="46">
+        <v>4</v>
+      </c>
+      <c r="O43" s="46">
+        <v>4</v>
+      </c>
+      <c r="P43" s="46">
         <v>10</v>
       </c>
-      <c r="F43" s="47">
+      <c r="Q43" s="46">
         <v>10</v>
       </c>
-      <c r="G43" s="47">
-        <v>13</v>
-      </c>
-      <c r="H43" s="47">
-        <v>13</v>
-      </c>
-      <c r="I43" s="47">
-        <v>13</v>
-      </c>
-      <c r="J43" s="47">
-        <v>13</v>
-      </c>
-      <c r="K43" s="47">
-        <v>13</v>
-      </c>
-      <c r="L43" s="47">
-        <v>13</v>
-      </c>
-      <c r="M43" s="47">
-        <v>13</v>
-      </c>
-      <c r="N43" s="47">
+      <c r="R43" s="46">
         <v>10</v>
       </c>
-      <c r="O43" s="47">
+      <c r="S43" s="46">
         <v>10</v>
       </c>
-      <c r="P43" s="47">
+      <c r="T43" s="46">
         <v>10</v>
       </c>
-      <c r="Q43" s="47">
+      <c r="U43" s="46">
+        <v>10</v>
+      </c>
+      <c r="V43" s="46">
+        <v>10</v>
+      </c>
+      <c r="W43" s="46">
+        <v>10</v>
+      </c>
+      <c r="X43" s="46">
+        <v>10</v>
+      </c>
+      <c r="Y43" s="46">
+        <v>10</v>
+      </c>
+      <c r="Z43" s="46">
+        <v>7</v>
+      </c>
+      <c r="AA43" s="46">
+        <v>7</v>
+      </c>
+      <c r="AB43" s="46">
+        <v>7</v>
+      </c>
+      <c r="AC43" s="46">
+        <v>7</v>
+      </c>
+      <c r="AD43" s="46">
+        <v>7</v>
+      </c>
+      <c r="AE43" s="46">
+        <v>7</v>
+      </c>
+      <c r="AF43" s="46">
         <v>0</v>
       </c>
-      <c r="R43" s="47">
+      <c r="AG43" s="46">
         <v>0</v>
       </c>
-      <c r="S43" s="47">
+      <c r="AH43" s="46">
         <v>0</v>
       </c>
-      <c r="T43" s="47">
+      <c r="AI43" s="46">
         <v>0</v>
       </c>
-      <c r="U43" s="47">
+      <c r="AJ43" s="46">
         <v>0</v>
       </c>
-      <c r="V43" s="47">
+      <c r="AK43" s="46">
         <v>0</v>
       </c>
-      <c r="W43" s="47">
-        <v>4</v>
-      </c>
-      <c r="X43" s="47">
-        <v>4</v>
-      </c>
-      <c r="Y43" s="47">
-        <v>4</v>
-      </c>
-      <c r="Z43" s="47">
-        <v>4</v>
-      </c>
-      <c r="AA43" s="47">
-        <v>4</v>
-      </c>
-      <c r="AB43" s="47">
-        <v>4</v>
-      </c>
-      <c r="AC43" s="47">
-        <v>4</v>
-      </c>
-      <c r="AD43" s="47">
+      <c r="AL43" s="46">
         <v>0</v>
       </c>
-      <c r="AE43" s="47">
+      <c r="AM43" s="46">
         <v>0</v>
       </c>
-      <c r="AF43" s="47">
+      <c r="AN43" s="46">
         <v>0</v>
       </c>
-      <c r="AG43" s="47">
+      <c r="AO43" s="46">
         <v>0</v>
       </c>
-      <c r="AH43" s="47">
+      <c r="AP43" s="46">
         <v>0</v>
       </c>
-      <c r="AI43" s="47">
+      <c r="AQ43" s="46">
         <v>0</v>
       </c>
-      <c r="AJ43" s="47">
+      <c r="AR43" s="46">
         <v>0</v>
       </c>
-      <c r="AK43" s="47">
+      <c r="AS43" s="46">
         <v>0</v>
       </c>
-      <c r="AL43" s="47">
+      <c r="AT43" s="46">
         <v>0</v>
       </c>
-      <c r="AM43" s="47">
+      <c r="AU43" s="46">
         <v>0</v>
       </c>
-      <c r="AN43" s="47">
+      <c r="AV43" s="46">
         <v>0</v>
       </c>
-      <c r="AO43" s="47">
+      <c r="AW43" s="46">
         <v>0</v>
       </c>
-      <c r="AP43" s="47">
-        <v>0</v>
-      </c>
-      <c r="AQ43" s="47">
-        <v>10</v>
-      </c>
-      <c r="AR43" s="47">
-        <v>10</v>
-      </c>
-      <c r="AS43" s="47"/>
-      <c r="AT43" s="47"/>
-      <c r="AU43" s="47"/>
     </row>
     <row r="44" spans="2:100" s="31" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E44" s="47">
+      <c r="E44" s="46">
+        <v>7</v>
+      </c>
+      <c r="F44" s="46">
+        <v>7</v>
+      </c>
+      <c r="G44" s="46">
+        <v>7</v>
+      </c>
+      <c r="H44" s="46">
+        <v>7</v>
+      </c>
+      <c r="I44" s="46">
+        <v>7</v>
+      </c>
+      <c r="J44" s="46">
+        <v>3</v>
+      </c>
+      <c r="K44" s="46">
+        <v>3</v>
+      </c>
+      <c r="L44" s="46">
+        <v>3</v>
+      </c>
+      <c r="M44" s="46">
+        <v>3</v>
+      </c>
+      <c r="N44" s="46">
+        <v>3</v>
+      </c>
+      <c r="O44" s="46">
         <v>8</v>
       </c>
-      <c r="F44" s="47">
+      <c r="P44" s="46">
         <v>8</v>
       </c>
-      <c r="G44" s="47">
+      <c r="Q44" s="46">
         <v>8</v>
       </c>
-      <c r="H44" s="47">
+      <c r="R44" s="46">
         <v>8</v>
       </c>
-      <c r="I44" s="47">
-        <v>7</v>
-      </c>
-      <c r="J44" s="47">
-        <v>7</v>
-      </c>
-      <c r="K44" s="47">
-        <v>7</v>
-      </c>
-      <c r="L44" s="47">
-        <v>7</v>
-      </c>
-      <c r="M44" s="47">
-        <v>7</v>
-      </c>
-      <c r="N44" s="47">
-        <v>7</v>
-      </c>
-      <c r="O44" s="47">
-        <v>7</v>
-      </c>
-      <c r="P44" s="47">
-        <v>7</v>
-      </c>
-      <c r="Q44" s="47">
-        <v>9</v>
-      </c>
-      <c r="R44" s="47">
-        <v>9</v>
-      </c>
-      <c r="S44" s="47">
-        <v>9</v>
-      </c>
-      <c r="T44" s="47">
+      <c r="S44" s="46">
+        <v>8</v>
+      </c>
+      <c r="T44" s="46">
+        <v>8</v>
+      </c>
+      <c r="U44" s="46">
+        <v>8</v>
+      </c>
+      <c r="V44" s="46">
+        <v>3</v>
+      </c>
+      <c r="W44" s="46">
+        <v>3</v>
+      </c>
+      <c r="X44" s="46">
+        <v>3</v>
+      </c>
+      <c r="Y44" s="46">
+        <v>3</v>
+      </c>
+      <c r="Z44" s="46">
+        <v>3</v>
+      </c>
+      <c r="AA44" s="46">
+        <v>3</v>
+      </c>
+      <c r="AB44" s="46">
+        <v>3</v>
+      </c>
+      <c r="AC44" s="46">
+        <v>3</v>
+      </c>
+      <c r="AD44" s="46">
+        <v>3</v>
+      </c>
+      <c r="AE44" s="46">
+        <v>3</v>
+      </c>
+      <c r="AF44" s="46">
+        <v>3</v>
+      </c>
+      <c r="AG44" s="46">
+        <v>3</v>
+      </c>
+      <c r="AH44" s="46">
+        <v>3</v>
+      </c>
+      <c r="AI44" s="46">
+        <v>3</v>
+      </c>
+      <c r="AJ44" s="46">
+        <v>3</v>
+      </c>
+      <c r="AK44" s="46">
+        <v>3</v>
+      </c>
+      <c r="AL44" s="46">
+        <v>3</v>
+      </c>
+      <c r="AM44" s="46">
+        <v>3</v>
+      </c>
+      <c r="AN44" s="46">
+        <v>6</v>
+      </c>
+      <c r="AO44" s="46">
         <v>4</v>
       </c>
-      <c r="U44" s="47">
+      <c r="AP44" s="46">
         <v>4</v>
       </c>
-      <c r="V44" s="47">
+      <c r="AQ44" s="46">
         <v>4</v>
       </c>
-      <c r="W44" s="47">
-        <v>8</v>
-      </c>
-      <c r="X44" s="47">
-        <v>8</v>
-      </c>
-      <c r="Y44" s="47">
-        <v>8</v>
-      </c>
-      <c r="Z44" s="47">
-        <v>8</v>
-      </c>
-      <c r="AA44" s="47">
-        <v>8</v>
-      </c>
-      <c r="AB44" s="47">
-        <v>8</v>
-      </c>
-      <c r="AC44" s="47">
-        <v>8</v>
-      </c>
-      <c r="AD44" s="47">
-        <v>6</v>
-      </c>
-      <c r="AE44" s="47">
-        <v>6</v>
-      </c>
-      <c r="AF44" s="47">
-        <v>6</v>
-      </c>
-      <c r="AG44" s="47">
-        <v>6</v>
-      </c>
-      <c r="AH44" s="47">
-        <v>6</v>
-      </c>
-      <c r="AI44" s="47">
-        <v>3</v>
-      </c>
-      <c r="AJ44" s="47">
-        <v>3</v>
-      </c>
-      <c r="AK44" s="47">
-        <v>3</v>
-      </c>
-      <c r="AL44" s="47">
-        <v>3</v>
-      </c>
-      <c r="AM44" s="47">
-        <v>1</v>
-      </c>
-      <c r="AN44" s="47">
-        <v>1</v>
-      </c>
-      <c r="AO44" s="47">
-        <v>1</v>
-      </c>
-      <c r="AP44" s="47">
-        <v>1</v>
-      </c>
-      <c r="AQ44" s="47">
-        <v>0</v>
-      </c>
-      <c r="AR44" s="47">
-        <v>0</v>
-      </c>
-      <c r="AS44" s="47"/>
-      <c r="AT44" s="47"/>
-      <c r="AU44" s="47"/>
+      <c r="AR44" s="46">
+        <v>4</v>
+      </c>
+      <c r="AS44" s="46">
+        <v>4</v>
+      </c>
+      <c r="AT44" s="46">
+        <v>4</v>
+      </c>
+      <c r="AU44" s="46">
+        <v>4</v>
+      </c>
+      <c r="AV44" s="46">
+        <v>4</v>
+      </c>
+      <c r="AW44" s="46">
+        <v>4</v>
+      </c>
     </row>
-    <row r="45" spans="2:100" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:100" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="45">
         <v>0</v>
       </c>
       <c r="C45" s="45">
         <v>0</v>
       </c>
-      <c r="D45" s="49"/>
+      <c r="D45" s="48"/>
       <c r="E45" s="43">
         <v>0</v>
       </c>
@@ -10983,7 +11109,7 @@
       <c r="AS45" s="33">
         <v>40</v>
       </c>
-      <c r="AT45" s="33">
+      <c r="AT45" s="59">
         <v>41</v>
       </c>
       <c r="AU45" s="33">
@@ -10995,10 +11121,7 @@
       <c r="AW45" s="33">
         <v>44</v>
       </c>
-      <c r="AX45" s="33">
-        <v>45</v>
-      </c>
-      <c r="AY45" s="33">
+      <c r="AX45" s="34">
         <v>46</v>
       </c>
       <c r="AZ45" s="33">
@@ -11097,70 +11220,71 @@
       <c r="C46" s="45">
         <v>24</v>
       </c>
-      <c r="D46" s="75" t="s">
+      <c r="D46" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="50"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
-      <c r="Q46" s="54"/>
-      <c r="R46" s="54"/>
-      <c r="S46" s="54"/>
-      <c r="T46" s="54"/>
-      <c r="U46" s="54"/>
-      <c r="V46" s="54"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="51"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="51"/>
+      <c r="P46" s="52"/>
+      <c r="Q46" s="52"/>
+      <c r="R46" s="52"/>
+      <c r="S46" s="52"/>
+      <c r="T46" s="52"/>
+      <c r="U46" s="52"/>
+      <c r="V46" s="52"/>
       <c r="W46" s="52"/>
-      <c r="X46" s="51"/>
+      <c r="X46" s="52"/>
       <c r="Y46" s="52"/>
-      <c r="Z46" s="51"/>
-      <c r="AA46" s="52"/>
-      <c r="AB46" s="51"/>
-      <c r="AC46" s="52"/>
-      <c r="AD46" s="51"/>
-      <c r="AE46" s="52"/>
-      <c r="AF46" s="51"/>
-      <c r="AG46" s="52"/>
-      <c r="AH46" s="51"/>
-      <c r="AI46" s="52"/>
-      <c r="AJ46" s="51"/>
-      <c r="AK46" s="52"/>
-      <c r="AL46" s="51"/>
-      <c r="AM46" s="52"/>
-      <c r="AN46" s="51"/>
-      <c r="AO46" s="52"/>
-      <c r="AP46" s="51"/>
-      <c r="AQ46" s="52"/>
-      <c r="AR46" s="51"/>
+      <c r="Z46" s="50"/>
+      <c r="AA46" s="51"/>
+      <c r="AB46" s="50"/>
+      <c r="AC46" s="51"/>
+      <c r="AD46" s="50"/>
+      <c r="AE46" s="51"/>
+      <c r="AF46" s="50"/>
+      <c r="AG46" s="51"/>
+      <c r="AH46" s="50"/>
+      <c r="AI46" s="51"/>
+      <c r="AJ46" s="50"/>
+      <c r="AK46" s="51"/>
+      <c r="AL46" s="50"/>
+      <c r="AM46" s="51"/>
+      <c r="AN46" s="50"/>
+      <c r="AO46" s="51"/>
+      <c r="AP46" s="50"/>
+      <c r="AQ46" s="51"/>
+      <c r="AR46" s="50"/>
       <c r="AS46" s="67"/>
-      <c r="AT46" s="66"/>
-      <c r="AU46" s="40"/>
-      <c r="AV46" s="41"/>
-      <c r="AW46" s="40"/>
-      <c r="AX46" s="41"/>
-      <c r="AY46" s="40"/>
-      <c r="AZ46" s="41"/>
-      <c r="BA46" s="40"/>
-      <c r="BB46" s="41"/>
-      <c r="BC46" s="40"/>
-      <c r="BD46" s="41"/>
-      <c r="BE46" s="40"/>
-      <c r="BF46" s="41"/>
-      <c r="BG46" s="40"/>
-      <c r="BH46" s="41"/>
-      <c r="BI46" s="40"/>
-      <c r="BJ46" s="41"/>
-      <c r="BK46" s="40"/>
-      <c r="BL46" s="41"/>
-      <c r="BM46" s="40"/>
+      <c r="AT46" s="50"/>
+      <c r="AU46" s="69"/>
+      <c r="AV46" s="50"/>
+      <c r="AW46" s="51"/>
+      <c r="AX46" s="53"/>
+      <c r="AZ46" s="74">
+        <v>0</v>
+      </c>
+      <c r="BA46" s="51"/>
+      <c r="BB46" s="50"/>
+      <c r="BC46" s="51"/>
+      <c r="BD46" s="50"/>
+      <c r="BE46" s="51"/>
+      <c r="BF46" s="50"/>
+      <c r="BG46" s="51"/>
+      <c r="BH46" s="50"/>
+      <c r="BI46" s="51"/>
+      <c r="BJ46" s="50"/>
+      <c r="BK46" s="51"/>
+      <c r="BL46" s="50"/>
+      <c r="BM46" s="51"/>
       <c r="BN46" s="41"/>
       <c r="BO46" s="40"/>
       <c r="BP46" s="35"/>
@@ -11204,27 +11328,27 @@
       <c r="C47" s="45">
         <v>14</v>
       </c>
-      <c r="D47" s="75" t="s">
+      <c r="D47" s="60" t="s">
         <v>30</v>
       </c>
       <c r="E47" s="56"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="41"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
       <c r="O47" s="40"/>
       <c r="P47" s="41"/>
-      <c r="Q47" s="42"/>
-      <c r="R47" s="42"/>
-      <c r="S47" s="42"/>
-      <c r="T47" s="42"/>
-      <c r="U47" s="42"/>
-      <c r="V47" s="42"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="41"/>
+      <c r="S47" s="40"/>
+      <c r="T47" s="41"/>
+      <c r="U47" s="40"/>
+      <c r="V47" s="41"/>
       <c r="W47" s="40"/>
       <c r="X47" s="41"/>
       <c r="Y47" s="40"/>
@@ -11248,13 +11372,14 @@
       <c r="AQ47" s="40"/>
       <c r="AR47" s="41"/>
       <c r="AS47" s="68"/>
-      <c r="AT47" s="66"/>
-      <c r="AU47" s="40"/>
-      <c r="AV47" s="41"/>
+      <c r="AT47" s="41"/>
+      <c r="AU47" s="37"/>
+      <c r="AV47" s="35"/>
       <c r="AW47" s="40"/>
-      <c r="AX47" s="41"/>
-      <c r="AY47" s="40"/>
-      <c r="AZ47" s="41"/>
+      <c r="AX47" s="55"/>
+      <c r="AZ47" s="58">
+        <v>5</v>
+      </c>
       <c r="BA47" s="40"/>
       <c r="BB47" s="41"/>
       <c r="BC47" s="40"/>
@@ -11311,10 +11436,10 @@
       <c r="C48" s="45">
         <v>14</v>
       </c>
-      <c r="D48" s="75" t="s">
+      <c r="D48" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="58"/>
+      <c r="E48" s="56"/>
       <c r="F48" s="42"/>
       <c r="G48" s="42"/>
       <c r="H48" s="42"/>
@@ -11323,7 +11448,7 @@
       <c r="K48" s="42"/>
       <c r="L48" s="42"/>
       <c r="M48" s="42"/>
-      <c r="N48" s="44"/>
+      <c r="N48" s="42"/>
       <c r="O48" s="44"/>
       <c r="P48" s="44"/>
       <c r="Q48" s="44"/>
@@ -11331,14 +11456,14 @@
       <c r="S48" s="44"/>
       <c r="T48" s="44"/>
       <c r="U48" s="44"/>
-      <c r="V48" s="44"/>
-      <c r="W48" s="44"/>
-      <c r="X48" s="44"/>
-      <c r="Y48" s="44"/>
-      <c r="Z48" s="44"/>
-      <c r="AA48" s="44"/>
-      <c r="AB48" s="44"/>
-      <c r="AC48" s="44"/>
+      <c r="V48" s="41"/>
+      <c r="W48" s="40"/>
+      <c r="X48" s="41"/>
+      <c r="Y48" s="40"/>
+      <c r="Z48" s="41"/>
+      <c r="AA48" s="40"/>
+      <c r="AB48" s="41"/>
+      <c r="AC48" s="40"/>
       <c r="AD48" s="41"/>
       <c r="AE48" s="40"/>
       <c r="AF48" s="41"/>
@@ -11355,13 +11480,14 @@
       <c r="AQ48" s="40"/>
       <c r="AR48" s="41"/>
       <c r="AS48" s="68"/>
-      <c r="AT48" s="66"/>
-      <c r="AU48" s="40"/>
+      <c r="AT48" s="41"/>
+      <c r="AU48" s="37"/>
       <c r="AV48" s="41"/>
       <c r="AW48" s="40"/>
-      <c r="AX48" s="41"/>
-      <c r="AY48" s="40"/>
-      <c r="AZ48" s="41"/>
+      <c r="AX48" s="55"/>
+      <c r="AZ48" s="58">
+        <v>7</v>
+      </c>
       <c r="BA48" s="40"/>
       <c r="BB48" s="41"/>
       <c r="BC48" s="40"/>
@@ -11418,10 +11544,10 @@
       <c r="C49" s="45">
         <v>21</v>
       </c>
-      <c r="D49" s="75" t="s">
+      <c r="D49" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="56"/>
+      <c r="E49" s="54"/>
       <c r="F49" s="41"/>
       <c r="G49" s="40"/>
       <c r="H49" s="41"/>
@@ -11431,21 +11557,21 @@
       <c r="L49" s="41"/>
       <c r="M49" s="40"/>
       <c r="N49" s="41"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="40"/>
-      <c r="R49" s="41"/>
-      <c r="S49" s="40"/>
-      <c r="T49" s="41"/>
-      <c r="U49" s="40"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="42"/>
+      <c r="R49" s="42"/>
+      <c r="S49" s="42"/>
+      <c r="T49" s="42"/>
+      <c r="U49" s="42"/>
       <c r="V49" s="41"/>
-      <c r="W49" s="42"/>
-      <c r="X49" s="42"/>
-      <c r="Y49" s="42"/>
-      <c r="Z49" s="42"/>
-      <c r="AA49" s="42"/>
-      <c r="AB49" s="42"/>
-      <c r="AC49" s="42"/>
+      <c r="W49" s="40"/>
+      <c r="X49" s="41"/>
+      <c r="Y49" s="40"/>
+      <c r="Z49" s="41"/>
+      <c r="AA49" s="40"/>
+      <c r="AB49" s="41"/>
+      <c r="AC49" s="40"/>
       <c r="AD49" s="41"/>
       <c r="AE49" s="40"/>
       <c r="AF49" s="41"/>
@@ -11462,13 +11588,14 @@
       <c r="AQ49" s="40"/>
       <c r="AR49" s="41"/>
       <c r="AS49" s="68"/>
-      <c r="AT49" s="66"/>
-      <c r="AU49" s="40"/>
+      <c r="AT49" s="41"/>
+      <c r="AU49" s="37"/>
       <c r="AV49" s="41"/>
       <c r="AW49" s="40"/>
-      <c r="AX49" s="41"/>
-      <c r="AY49" s="40"/>
-      <c r="AZ49" s="41"/>
+      <c r="AX49" s="55"/>
+      <c r="AZ49" s="58">
+        <v>0</v>
+      </c>
       <c r="BA49" s="40"/>
       <c r="BB49" s="41"/>
       <c r="BC49" s="40"/>
@@ -11525,21 +11652,21 @@
       <c r="C50" s="45">
         <v>9</v>
       </c>
-      <c r="D50" s="75" t="s">
+      <c r="D50" s="60" t="s">
         <v>33</v>
       </c>
       <c r="E50" s="56"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="41"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
       <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="42"/>
-      <c r="N50" s="42"/>
-      <c r="O50" s="42"/>
-      <c r="P50" s="42"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="41"/>
       <c r="Q50" s="40"/>
       <c r="R50" s="41"/>
       <c r="S50" s="40"/>
@@ -11569,17 +11696,20 @@
       <c r="AQ50" s="40"/>
       <c r="AR50" s="41"/>
       <c r="AS50" s="68"/>
-      <c r="AT50" s="66"/>
-      <c r="AU50" s="40"/>
+      <c r="AT50" s="41"/>
+      <c r="AU50" s="37"/>
       <c r="AV50" s="41"/>
       <c r="AW50" s="40"/>
-      <c r="AX50" s="41"/>
-      <c r="AY50" s="40"/>
-      <c r="AZ50" s="41"/>
+      <c r="AX50" s="55"/>
+      <c r="AZ50" s="58">
+        <v>0</v>
+      </c>
       <c r="BA50" s="40"/>
       <c r="BB50" s="41"/>
       <c r="BC50" s="40"/>
-      <c r="BD50" s="41"/>
+      <c r="BD50" s="41">
+        <v>92</v>
+      </c>
       <c r="BE50" s="40"/>
       <c r="BF50" s="41"/>
       <c r="BG50" s="40"/>
@@ -11632,57 +11762,58 @@
       <c r="C51" s="45">
         <v>30</v>
       </c>
-      <c r="D51" s="75" t="s">
+      <c r="D51" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E51" s="56"/>
-      <c r="F51" s="35"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="41"/>
       <c r="G51" s="40"/>
-      <c r="H51" s="35"/>
+      <c r="H51" s="41"/>
       <c r="I51" s="40"/>
-      <c r="J51" s="35"/>
+      <c r="J51" s="41"/>
       <c r="K51" s="40"/>
-      <c r="L51" s="35"/>
+      <c r="L51" s="41"/>
       <c r="M51" s="40"/>
-      <c r="N51" s="35"/>
+      <c r="N51" s="41"/>
       <c r="O51" s="40"/>
-      <c r="P51" s="35"/>
+      <c r="P51" s="41"/>
       <c r="Q51" s="40"/>
-      <c r="R51" s="35"/>
+      <c r="R51" s="41"/>
       <c r="S51" s="40"/>
-      <c r="T51" s="35"/>
+      <c r="T51" s="41"/>
       <c r="U51" s="40"/>
-      <c r="V51" s="35"/>
-      <c r="W51" s="42"/>
-      <c r="X51" s="46"/>
-      <c r="Y51" s="42"/>
-      <c r="Z51" s="46"/>
+      <c r="V51" s="41"/>
+      <c r="W51" s="40"/>
+      <c r="X51" s="41"/>
+      <c r="Y51" s="40"/>
+      <c r="Z51" s="42"/>
       <c r="AA51" s="42"/>
-      <c r="AB51" s="46"/>
+      <c r="AB51" s="42"/>
       <c r="AC51" s="42"/>
-      <c r="AD51" s="35"/>
-      <c r="AE51" s="40"/>
-      <c r="AF51" s="35"/>
+      <c r="AD51" s="42"/>
+      <c r="AE51" s="42"/>
+      <c r="AF51" s="41"/>
       <c r="AG51" s="40"/>
-      <c r="AH51" s="35"/>
+      <c r="AH51" s="41"/>
       <c r="AI51" s="40"/>
-      <c r="AJ51" s="35"/>
+      <c r="AJ51" s="41"/>
       <c r="AK51" s="40"/>
-      <c r="AL51" s="35"/>
+      <c r="AL51" s="41"/>
       <c r="AM51" s="40"/>
-      <c r="AN51" s="35"/>
+      <c r="AN51" s="41"/>
       <c r="AO51" s="40"/>
-      <c r="AP51" s="35"/>
+      <c r="AP51" s="41"/>
       <c r="AQ51" s="40"/>
       <c r="AR51" s="41"/>
       <c r="AS51" s="68"/>
-      <c r="AT51" s="66"/>
-      <c r="AU51" s="40"/>
+      <c r="AT51" s="41"/>
+      <c r="AU51" s="37"/>
       <c r="AV51" s="41"/>
       <c r="AW51" s="40"/>
-      <c r="AX51" s="41"/>
-      <c r="AY51" s="40"/>
-      <c r="AZ51" s="41"/>
+      <c r="AX51" s="55"/>
+      <c r="AZ51" s="58">
+        <v>0</v>
+      </c>
       <c r="BA51" s="40"/>
       <c r="BB51" s="41"/>
       <c r="BC51" s="40"/>
@@ -11698,7 +11829,10 @@
       <c r="BM51" s="40"/>
       <c r="BN51" s="41"/>
       <c r="BO51" s="40"/>
-      <c r="BP51" s="35"/>
+      <c r="BP51" s="35">
+        <f>130-92</f>
+        <v>38</v>
+      </c>
       <c r="BQ51" s="40"/>
       <c r="BR51" s="41"/>
       <c r="BS51" s="40"/>
@@ -11739,36 +11873,36 @@
       <c r="C52" s="45">
         <v>4</v>
       </c>
-      <c r="D52" s="75" t="s">
+      <c r="D52" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="E52" s="58"/>
-      <c r="F52" s="42"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="41"/>
       <c r="G52" s="40"/>
       <c r="H52" s="41"/>
       <c r="I52" s="40"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="41"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="41"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="41"/>
-      <c r="U52" s="40"/>
-      <c r="V52" s="41"/>
-      <c r="W52" s="40"/>
-      <c r="X52" s="41"/>
-      <c r="Y52" s="40"/>
-      <c r="Z52" s="41"/>
-      <c r="AA52" s="40"/>
-      <c r="AB52" s="41"/>
-      <c r="AC52" s="40"/>
-      <c r="AD52" s="41"/>
-      <c r="AE52" s="40"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="44"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="44"/>
+      <c r="Y52" s="44"/>
+      <c r="Z52" s="44"/>
+      <c r="AA52" s="44"/>
+      <c r="AB52" s="44"/>
+      <c r="AC52" s="44"/>
+      <c r="AD52" s="44"/>
+      <c r="AE52" s="44"/>
       <c r="AF52" s="41"/>
       <c r="AG52" s="40"/>
       <c r="AH52" s="41"/>
@@ -11783,13 +11917,14 @@
       <c r="AQ52" s="40"/>
       <c r="AR52" s="41"/>
       <c r="AS52" s="68"/>
-      <c r="AT52" s="66"/>
-      <c r="AU52" s="40"/>
+      <c r="AT52" s="41"/>
+      <c r="AU52" s="37"/>
       <c r="AV52" s="41"/>
       <c r="AW52" s="40"/>
-      <c r="AX52" s="41"/>
-      <c r="AY52" s="40"/>
-      <c r="AZ52" s="41"/>
+      <c r="AX52" s="55"/>
+      <c r="AZ52" s="58">
+        <v>16</v>
+      </c>
       <c r="BA52" s="40"/>
       <c r="BB52" s="41"/>
       <c r="BC52" s="40"/>
@@ -11805,7 +11940,10 @@
       <c r="BM52" s="40"/>
       <c r="BN52" s="41"/>
       <c r="BO52" s="40"/>
-      <c r="BP52" s="35"/>
+      <c r="BP52" s="35">
+        <f>BP51/92</f>
+        <v>0.41304347826086957</v>
+      </c>
       <c r="BQ52" s="40"/>
       <c r="BR52" s="41"/>
       <c r="BS52" s="40"/>
@@ -11846,15 +11984,15 @@
       <c r="C53" s="45">
         <v>8</v>
       </c>
-      <c r="D53" s="75" t="s">
+      <c r="D53" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="E53" s="58"/>
+      <c r="E53" s="56"/>
       <c r="F53" s="42"/>
       <c r="G53" s="42"/>
       <c r="H53" s="42"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="44"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
       <c r="K53" s="44"/>
       <c r="L53" s="44"/>
       <c r="M53" s="44"/>
@@ -11876,9 +12014,9 @@
       <c r="AC53" s="44"/>
       <c r="AD53" s="44"/>
       <c r="AE53" s="44"/>
-      <c r="AF53" s="44"/>
-      <c r="AG53" s="44"/>
-      <c r="AH53" s="44"/>
+      <c r="AF53" s="41"/>
+      <c r="AG53" s="40"/>
+      <c r="AH53" s="41"/>
       <c r="AI53" s="40"/>
       <c r="AJ53" s="41"/>
       <c r="AK53" s="40"/>
@@ -11890,13 +12028,14 @@
       <c r="AQ53" s="40"/>
       <c r="AR53" s="41"/>
       <c r="AS53" s="68"/>
-      <c r="AT53" s="66"/>
-      <c r="AU53" s="40"/>
+      <c r="AT53" s="41"/>
+      <c r="AU53" s="37"/>
       <c r="AV53" s="41"/>
       <c r="AW53" s="40"/>
-      <c r="AX53" s="41"/>
-      <c r="AY53" s="40"/>
-      <c r="AZ53" s="41"/>
+      <c r="AX53" s="55"/>
+      <c r="AZ53" s="58">
+        <v>21</v>
+      </c>
       <c r="BA53" s="40"/>
       <c r="BB53" s="41"/>
       <c r="BC53" s="40"/>
@@ -11953,10 +12092,10 @@
       <c r="C54" s="45">
         <v>35</v>
       </c>
-      <c r="D54" s="75" t="s">
+      <c r="D54" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="E54" s="56"/>
+      <c r="E54" s="54"/>
       <c r="F54" s="41"/>
       <c r="G54" s="40"/>
       <c r="H54" s="41"/>
@@ -11973,19 +12112,19 @@
       <c r="S54" s="40"/>
       <c r="T54" s="41"/>
       <c r="U54" s="40"/>
-      <c r="V54" s="41"/>
-      <c r="W54" s="40"/>
-      <c r="X54" s="41"/>
-      <c r="Y54" s="40"/>
-      <c r="Z54" s="41"/>
-      <c r="AA54" s="40"/>
-      <c r="AB54" s="41"/>
-      <c r="AC54" s="40"/>
+      <c r="V54" s="42"/>
+      <c r="W54" s="42"/>
+      <c r="X54" s="42"/>
+      <c r="Y54" s="42"/>
+      <c r="Z54" s="42"/>
+      <c r="AA54" s="42"/>
+      <c r="AB54" s="42"/>
+      <c r="AC54" s="42"/>
       <c r="AD54" s="42"/>
       <c r="AE54" s="42"/>
-      <c r="AF54" s="42"/>
-      <c r="AG54" s="42"/>
-      <c r="AH54" s="42"/>
+      <c r="AF54" s="41"/>
+      <c r="AG54" s="40"/>
+      <c r="AH54" s="41"/>
       <c r="AI54" s="40"/>
       <c r="AJ54" s="41"/>
       <c r="AK54" s="40"/>
@@ -11997,13 +12136,14 @@
       <c r="AQ54" s="40"/>
       <c r="AR54" s="41"/>
       <c r="AS54" s="68"/>
-      <c r="AT54" s="66"/>
-      <c r="AU54" s="40"/>
+      <c r="AT54" s="41"/>
+      <c r="AU54" s="37"/>
       <c r="AV54" s="41"/>
       <c r="AW54" s="40"/>
-      <c r="AX54" s="41"/>
-      <c r="AY54" s="40"/>
-      <c r="AZ54" s="41"/>
+      <c r="AX54" s="55"/>
+      <c r="AZ54" s="58">
+        <v>0</v>
+      </c>
       <c r="BA54" s="40"/>
       <c r="BB54" s="41"/>
       <c r="BC54" s="40"/>
@@ -12060,20 +12200,20 @@
       <c r="C55" s="45">
         <v>19</v>
       </c>
-      <c r="D55" s="75" t="s">
+      <c r="D55" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="E55" s="58"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="41"/>
       <c r="I55" s="40"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="40"/>
-      <c r="N55" s="41"/>
-      <c r="O55" s="40"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="44"/>
+      <c r="O55" s="44"/>
       <c r="P55" s="41"/>
       <c r="Q55" s="40"/>
       <c r="R55" s="41"/>
@@ -12104,13 +12244,14 @@
       <c r="AQ55" s="40"/>
       <c r="AR55" s="41"/>
       <c r="AS55" s="68"/>
-      <c r="AT55" s="66"/>
-      <c r="AU55" s="40"/>
+      <c r="AT55" s="41"/>
+      <c r="AU55" s="37"/>
       <c r="AV55" s="41"/>
       <c r="AW55" s="40"/>
-      <c r="AX55" s="41"/>
-      <c r="AY55" s="40"/>
-      <c r="AZ55" s="41"/>
+      <c r="AX55" s="55"/>
+      <c r="AZ55" s="58">
+        <v>4</v>
+      </c>
       <c r="BA55" s="40"/>
       <c r="BB55" s="41"/>
       <c r="BC55" s="40"/>
@@ -12126,7 +12267,10 @@
       <c r="BM55" s="40"/>
       <c r="BN55" s="41"/>
       <c r="BO55" s="40"/>
-      <c r="BP55" s="35"/>
+      <c r="BP55" s="35">
+        <f>11/44</f>
+        <v>0.25</v>
+      </c>
       <c r="BQ55" s="40"/>
       <c r="BR55" s="41"/>
       <c r="BS55" s="40"/>
@@ -12167,10 +12311,10 @@
       <c r="C56" s="45">
         <v>34</v>
       </c>
-      <c r="D56" s="75" t="s">
+      <c r="D56" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="56"/>
+      <c r="E56" s="54"/>
       <c r="F56" s="41"/>
       <c r="G56" s="40"/>
       <c r="H56" s="41"/>
@@ -12195,8 +12339,8 @@
       <c r="AA56" s="40"/>
       <c r="AB56" s="41"/>
       <c r="AC56" s="40"/>
-      <c r="AD56" s="42"/>
-      <c r="AE56" s="42"/>
+      <c r="AD56" s="41"/>
+      <c r="AE56" s="40"/>
       <c r="AF56" s="42"/>
       <c r="AG56" s="42"/>
       <c r="AH56" s="42"/>
@@ -12204,20 +12348,21 @@
       <c r="AJ56" s="42"/>
       <c r="AK56" s="42"/>
       <c r="AL56" s="42"/>
-      <c r="AM56" s="44"/>
-      <c r="AN56" s="44"/>
+      <c r="AM56" s="42"/>
+      <c r="AN56" s="42"/>
       <c r="AO56" s="44"/>
       <c r="AP56" s="44"/>
       <c r="AQ56" s="44"/>
       <c r="AR56" s="44"/>
-      <c r="AS56" s="68"/>
-      <c r="AT56" s="66"/>
-      <c r="AU56" s="40"/>
-      <c r="AV56" s="41"/>
-      <c r="AW56" s="40"/>
-      <c r="AX56" s="41"/>
-      <c r="AY56" s="40"/>
-      <c r="AZ56" s="41"/>
+      <c r="AS56" s="44"/>
+      <c r="AT56" s="44"/>
+      <c r="AU56" s="44"/>
+      <c r="AV56" s="44"/>
+      <c r="AW56" s="44"/>
+      <c r="AX56" s="55"/>
+      <c r="AZ56" s="58">
+        <v>9</v>
+      </c>
       <c r="BA56" s="40"/>
       <c r="BB56" s="41"/>
       <c r="BC56" s="40"/>
@@ -12274,57 +12419,58 @@
       <c r="C57" s="45">
         <v>5</v>
       </c>
-      <c r="D57" s="75" t="s">
+      <c r="D57" s="60" t="s">
         <v>40</v>
       </c>
       <c r="E57" s="56"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="41"/>
-      <c r="M57" s="40"/>
-      <c r="N57" s="41"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="41"/>
-      <c r="Q57" s="42"/>
-      <c r="R57" s="42"/>
-      <c r="S57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="44"/>
+      <c r="M57" s="44"/>
+      <c r="N57" s="44"/>
+      <c r="O57" s="44"/>
+      <c r="P57" s="44"/>
+      <c r="Q57" s="44"/>
+      <c r="R57" s="44"/>
+      <c r="S57" s="44"/>
       <c r="T57" s="44"/>
       <c r="U57" s="44"/>
       <c r="V57" s="44"/>
-      <c r="W57" s="40"/>
-      <c r="X57" s="41"/>
-      <c r="Y57" s="40"/>
-      <c r="Z57" s="41"/>
-      <c r="AA57" s="40"/>
-      <c r="AB57" s="41"/>
-      <c r="AC57" s="40"/>
-      <c r="AD57" s="41"/>
-      <c r="AE57" s="40"/>
-      <c r="AF57" s="41"/>
-      <c r="AG57" s="40"/>
-      <c r="AH57" s="41"/>
-      <c r="AI57" s="40"/>
-      <c r="AJ57" s="41"/>
-      <c r="AK57" s="40"/>
-      <c r="AL57" s="41"/>
-      <c r="AM57" s="40"/>
+      <c r="W57" s="44"/>
+      <c r="X57" s="44"/>
+      <c r="Y57" s="44"/>
+      <c r="Z57" s="44"/>
+      <c r="AA57" s="44"/>
+      <c r="AB57" s="44"/>
+      <c r="AC57" s="44"/>
+      <c r="AD57" s="44"/>
+      <c r="AE57" s="44"/>
+      <c r="AF57" s="44"/>
+      <c r="AG57" s="44"/>
+      <c r="AH57" s="44"/>
+      <c r="AI57" s="44"/>
+      <c r="AJ57" s="44"/>
+      <c r="AK57" s="44"/>
+      <c r="AL57" s="44"/>
+      <c r="AM57" s="44"/>
       <c r="AN57" s="41"/>
       <c r="AO57" s="40"/>
       <c r="AP57" s="41"/>
       <c r="AQ57" s="40"/>
       <c r="AR57" s="41"/>
       <c r="AS57" s="68"/>
-      <c r="AT57" s="66"/>
-      <c r="AU57" s="40"/>
+      <c r="AT57" s="41"/>
+      <c r="AU57" s="37"/>
       <c r="AV57" s="41"/>
       <c r="AW57" s="40"/>
-      <c r="AX57" s="41"/>
-      <c r="AY57" s="40"/>
-      <c r="AZ57" s="41"/>
+      <c r="AX57" s="55"/>
+      <c r="AZ57" s="58">
+        <v>30</v>
+      </c>
       <c r="BA57" s="40"/>
       <c r="BB57" s="41"/>
       <c r="BC57" s="40"/>
@@ -12381,10 +12527,10 @@
       <c r="C58" s="45">
         <v>46</v>
       </c>
-      <c r="D58" s="75" t="s">
+      <c r="D58" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="E58" s="56"/>
+      <c r="E58" s="54"/>
       <c r="F58" s="41"/>
       <c r="G58" s="40"/>
       <c r="H58" s="41"/>
@@ -12411,27 +12557,28 @@
       <c r="AC58" s="40"/>
       <c r="AD58" s="41"/>
       <c r="AE58" s="40"/>
-      <c r="AF58" s="41"/>
-      <c r="AG58" s="40"/>
-      <c r="AH58" s="41"/>
+      <c r="AF58" s="42"/>
+      <c r="AG58" s="42"/>
+      <c r="AH58" s="42"/>
       <c r="AI58" s="42"/>
       <c r="AJ58" s="42"/>
       <c r="AK58" s="42"/>
       <c r="AL58" s="42"/>
       <c r="AM58" s="42"/>
-      <c r="AN58" s="42"/>
-      <c r="AO58" s="42"/>
-      <c r="AP58" s="42"/>
+      <c r="AN58" s="41"/>
+      <c r="AO58" s="40"/>
+      <c r="AP58" s="41"/>
       <c r="AQ58" s="40"/>
       <c r="AR58" s="41"/>
       <c r="AS58" s="68"/>
-      <c r="AT58" s="66"/>
-      <c r="AU58" s="40"/>
+      <c r="AT58" s="41"/>
+      <c r="AU58" s="37"/>
       <c r="AV58" s="41"/>
       <c r="AW58" s="40"/>
-      <c r="AX58" s="41"/>
-      <c r="AY58" s="40"/>
-      <c r="AZ58" s="41"/>
+      <c r="AX58" s="55"/>
+      <c r="AZ58" s="58">
+        <v>0</v>
+      </c>
       <c r="BA58" s="40"/>
       <c r="BB58" s="41"/>
       <c r="BC58" s="40"/>
@@ -12488,70 +12635,71 @@
       <c r="C59" s="45">
         <v>55</v>
       </c>
-      <c r="D59" s="75" t="s">
+      <c r="D59" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="E59" s="56"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="41"/>
-      <c r="K59" s="40"/>
-      <c r="L59" s="41"/>
-      <c r="M59" s="40"/>
-      <c r="N59" s="41"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="41"/>
-      <c r="Q59" s="40"/>
-      <c r="R59" s="41"/>
-      <c r="S59" s="40"/>
-      <c r="T59" s="41"/>
-      <c r="U59" s="40"/>
-      <c r="V59" s="41"/>
-      <c r="W59" s="40"/>
-      <c r="X59" s="41"/>
-      <c r="Y59" s="40"/>
-      <c r="Z59" s="41"/>
-      <c r="AA59" s="40"/>
-      <c r="AB59" s="41"/>
-      <c r="AC59" s="40"/>
-      <c r="AD59" s="41"/>
-      <c r="AE59" s="40"/>
-      <c r="AF59" s="41"/>
-      <c r="AG59" s="40"/>
-      <c r="AH59" s="41"/>
-      <c r="AI59" s="40"/>
-      <c r="AJ59" s="41"/>
-      <c r="AK59" s="40"/>
-      <c r="AL59" s="41"/>
-      <c r="AM59" s="40"/>
-      <c r="AN59" s="41"/>
-      <c r="AO59" s="40"/>
-      <c r="AP59" s="41"/>
-      <c r="AQ59" s="42"/>
-      <c r="AR59" s="42"/>
-      <c r="AS59" s="68"/>
-      <c r="AT59" s="66"/>
-      <c r="AU59" s="40"/>
-      <c r="AV59" s="41"/>
-      <c r="AW59" s="40"/>
-      <c r="AX59" s="41"/>
-      <c r="AY59" s="40"/>
-      <c r="AZ59" s="41"/>
-      <c r="BA59" s="40"/>
-      <c r="BB59" s="41"/>
-      <c r="BC59" s="40"/>
-      <c r="BD59" s="41"/>
-      <c r="BE59" s="40"/>
-      <c r="BF59" s="41"/>
-      <c r="BG59" s="40"/>
-      <c r="BH59" s="41"/>
-      <c r="BI59" s="40"/>
-      <c r="BJ59" s="41"/>
-      <c r="BK59" s="40"/>
-      <c r="BL59" s="41"/>
-      <c r="BM59" s="40"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="77"/>
+      <c r="I59" s="78"/>
+      <c r="J59" s="77"/>
+      <c r="K59" s="78"/>
+      <c r="L59" s="77"/>
+      <c r="M59" s="78"/>
+      <c r="N59" s="77"/>
+      <c r="O59" s="78"/>
+      <c r="P59" s="77"/>
+      <c r="Q59" s="78"/>
+      <c r="R59" s="77"/>
+      <c r="S59" s="78"/>
+      <c r="T59" s="77"/>
+      <c r="U59" s="78"/>
+      <c r="V59" s="77"/>
+      <c r="W59" s="78"/>
+      <c r="X59" s="77"/>
+      <c r="Y59" s="78"/>
+      <c r="Z59" s="77"/>
+      <c r="AA59" s="78"/>
+      <c r="AB59" s="77"/>
+      <c r="AC59" s="78"/>
+      <c r="AD59" s="77"/>
+      <c r="AE59" s="78"/>
+      <c r="AF59" s="77"/>
+      <c r="AG59" s="78"/>
+      <c r="AH59" s="77"/>
+      <c r="AI59" s="78"/>
+      <c r="AJ59" s="77"/>
+      <c r="AK59" s="78"/>
+      <c r="AL59" s="77"/>
+      <c r="AM59" s="78"/>
+      <c r="AN59" s="70"/>
+      <c r="AO59" s="70"/>
+      <c r="AP59" s="70"/>
+      <c r="AQ59" s="70"/>
+      <c r="AR59" s="70"/>
+      <c r="AS59" s="79"/>
+      <c r="AT59" s="70"/>
+      <c r="AU59" s="80"/>
+      <c r="AV59" s="70"/>
+      <c r="AW59" s="70"/>
+      <c r="AX59" s="81"/>
+      <c r="AZ59" s="75">
+        <v>0</v>
+      </c>
+      <c r="BA59" s="66"/>
+      <c r="BB59" s="65"/>
+      <c r="BC59" s="66"/>
+      <c r="BD59" s="65"/>
+      <c r="BE59" s="66"/>
+      <c r="BF59" s="65"/>
+      <c r="BG59" s="66"/>
+      <c r="BH59" s="65"/>
+      <c r="BI59" s="66"/>
+      <c r="BJ59" s="65"/>
+      <c r="BK59" s="66"/>
+      <c r="BL59" s="65"/>
+      <c r="BM59" s="66"/>
       <c r="BN59" s="41"/>
       <c r="BO59" s="40"/>
       <c r="BP59" s="35"/>
@@ -12595,130 +12743,130 @@
       <c r="C60" s="45">
         <v>56</v>
       </c>
-      <c r="D60" s="76" t="s">
+      <c r="D60" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="E60" s="73">
+      <c r="E60" s="84">
         <v>0</v>
       </c>
-      <c r="F60" s="72">
+      <c r="F60" s="33">
         <v>1</v>
       </c>
-      <c r="G60" s="72">
+      <c r="G60" s="33">
         <v>2</v>
       </c>
-      <c r="H60" s="72">
+      <c r="H60" s="33">
         <v>3</v>
       </c>
-      <c r="I60" s="72">
+      <c r="I60" s="33">
         <v>4</v>
       </c>
-      <c r="J60" s="72">
+      <c r="J60" s="33">
         <v>5</v>
       </c>
-      <c r="K60" s="72">
+      <c r="K60" s="33">
         <v>6</v>
       </c>
-      <c r="L60" s="72">
+      <c r="L60" s="33">
         <v>7</v>
       </c>
-      <c r="M60" s="72">
+      <c r="M60" s="33">
         <v>8</v>
       </c>
-      <c r="N60" s="72">
+      <c r="N60" s="33">
         <v>9</v>
       </c>
-      <c r="O60" s="72">
+      <c r="O60" s="33">
         <v>10</v>
       </c>
-      <c r="P60" s="72">
+      <c r="P60" s="33">
         <v>11</v>
       </c>
-      <c r="Q60" s="72">
+      <c r="Q60" s="33">
         <v>12</v>
       </c>
-      <c r="R60" s="72">
+      <c r="R60" s="33">
         <v>13</v>
       </c>
-      <c r="S60" s="72">
+      <c r="S60" s="33">
         <v>14</v>
       </c>
-      <c r="T60" s="72">
+      <c r="T60" s="33">
         <v>15</v>
       </c>
-      <c r="U60" s="72">
+      <c r="U60" s="33">
         <v>16</v>
       </c>
-      <c r="V60" s="72">
+      <c r="V60" s="33">
         <v>17</v>
       </c>
-      <c r="W60" s="72">
+      <c r="W60" s="33">
         <v>18</v>
       </c>
-      <c r="X60" s="72">
+      <c r="X60" s="33">
         <v>19</v>
       </c>
-      <c r="Y60" s="72">
+      <c r="Y60" s="33">
         <v>20</v>
       </c>
-      <c r="Z60" s="72">
+      <c r="Z60" s="33">
         <v>21</v>
       </c>
-      <c r="AA60" s="72">
+      <c r="AA60" s="33">
         <v>22</v>
       </c>
-      <c r="AB60" s="72">
+      <c r="AB60" s="33">
         <v>23</v>
       </c>
-      <c r="AC60" s="72">
+      <c r="AC60" s="33">
         <v>24</v>
       </c>
-      <c r="AD60" s="72">
+      <c r="AD60" s="33">
         <v>25</v>
       </c>
-      <c r="AE60" s="72">
+      <c r="AE60" s="33">
         <v>26</v>
       </c>
-      <c r="AF60" s="72">
+      <c r="AF60" s="33">
         <v>27</v>
       </c>
-      <c r="AG60" s="72">
+      <c r="AG60" s="33">
         <v>28</v>
       </c>
-      <c r="AH60" s="72">
+      <c r="AH60" s="33">
         <v>29</v>
       </c>
-      <c r="AI60" s="72">
+      <c r="AI60" s="33">
         <v>30</v>
       </c>
-      <c r="AJ60" s="72">
+      <c r="AJ60" s="33">
         <v>31</v>
       </c>
-      <c r="AK60" s="72">
+      <c r="AK60" s="33">
         <v>32</v>
       </c>
-      <c r="AL60" s="72">
+      <c r="AL60" s="33">
         <v>33</v>
       </c>
-      <c r="AM60" s="72">
+      <c r="AM60" s="33">
         <v>34</v>
       </c>
-      <c r="AN60" s="72">
+      <c r="AN60" s="33">
         <v>35</v>
       </c>
-      <c r="AO60" s="72">
+      <c r="AO60" s="33">
         <v>36</v>
       </c>
-      <c r="AP60" s="72">
+      <c r="AP60" s="33">
         <v>37</v>
       </c>
-      <c r="AQ60" s="72">
+      <c r="AQ60" s="33">
         <v>38</v>
       </c>
-      <c r="AR60" s="72">
+      <c r="AR60" s="33">
         <v>39</v>
       </c>
-      <c r="AS60" s="74">
+      <c r="AS60" s="33">
         <v>40</v>
       </c>
       <c r="AT60" s="33">
@@ -12733,52 +12881,49 @@
       <c r="AW60" s="33">
         <v>44</v>
       </c>
-      <c r="AX60" s="33">
+      <c r="AX60" s="34">
         <v>45</v>
       </c>
-      <c r="AY60" s="33">
-        <v>46</v>
-      </c>
-      <c r="AZ60" s="33">
+      <c r="AZ60" s="64">
         <v>47</v>
       </c>
-      <c r="BA60" s="33">
+      <c r="BA60" s="64">
         <v>48</v>
       </c>
-      <c r="BB60" s="33">
+      <c r="BB60" s="64">
         <v>49</v>
       </c>
-      <c r="BC60" s="33">
+      <c r="BC60" s="64">
         <v>50</v>
       </c>
-      <c r="BD60" s="33">
+      <c r="BD60" s="64">
         <v>51</v>
       </c>
-      <c r="BE60" s="33">
+      <c r="BE60" s="64">
         <v>52</v>
       </c>
-      <c r="BF60" s="33">
+      <c r="BF60" s="64">
         <v>53</v>
       </c>
-      <c r="BG60" s="33">
+      <c r="BG60" s="64">
         <v>54</v>
       </c>
-      <c r="BH60" s="33">
+      <c r="BH60" s="64">
         <v>55</v>
       </c>
-      <c r="BI60" s="33">
+      <c r="BI60" s="64">
         <v>56</v>
       </c>
-      <c r="BJ60" s="33">
+      <c r="BJ60" s="64">
         <v>57</v>
       </c>
-      <c r="BK60" s="33">
+      <c r="BK60" s="64">
         <v>58</v>
       </c>
-      <c r="BL60" s="33">
+      <c r="BL60" s="64">
         <v>59</v>
       </c>
-      <c r="BM60" s="33">
+      <c r="BM60" s="64">
         <v>60</v>
       </c>
       <c r="BN60" s="33">
@@ -12829,70 +12974,71 @@
       <c r="CC60" s="34"/>
     </row>
     <row r="61" spans="2:100" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D61" s="89"/>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="90"/>
-      <c r="H61" s="90"/>
-      <c r="I61" s="90"/>
-      <c r="J61" s="90"/>
-      <c r="K61" s="90"/>
-      <c r="L61" s="90"/>
-      <c r="M61" s="90"/>
-      <c r="N61" s="90"/>
-      <c r="O61" s="90"/>
-      <c r="P61" s="78"/>
-      <c r="Q61" s="88" t="s">
+      <c r="D61" s="95"/>
+      <c r="E61" s="96"/>
+      <c r="F61" s="96"/>
+      <c r="G61" s="96"/>
+      <c r="H61" s="96"/>
+      <c r="I61" s="96"/>
+      <c r="J61" s="96"/>
+      <c r="K61" s="96"/>
+      <c r="L61" s="96"/>
+      <c r="M61" s="96"/>
+      <c r="N61" s="96"/>
+      <c r="O61" s="96"/>
+      <c r="P61" s="63"/>
+      <c r="Q61" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="R61" s="88"/>
-      <c r="S61" s="88"/>
-      <c r="T61" s="88"/>
-      <c r="U61" s="88"/>
-      <c r="V61" s="88"/>
-      <c r="W61" s="88"/>
-      <c r="X61" s="88"/>
-      <c r="Y61" s="88"/>
-      <c r="Z61" s="88"/>
-      <c r="AA61" s="88"/>
-      <c r="AB61" s="77"/>
-      <c r="AC61" s="88" t="s">
+      <c r="R61" s="94"/>
+      <c r="S61" s="94"/>
+      <c r="T61" s="94"/>
+      <c r="U61" s="94"/>
+      <c r="V61" s="94"/>
+      <c r="W61" s="94"/>
+      <c r="X61" s="94"/>
+      <c r="Y61" s="94"/>
+      <c r="Z61" s="94"/>
+      <c r="AA61" s="94"/>
+      <c r="AB61" s="62"/>
+      <c r="AC61" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="AD61" s="88"/>
-      <c r="AE61" s="88"/>
-      <c r="AF61" s="88"/>
-      <c r="AG61" s="88"/>
-      <c r="AH61" s="88"/>
-      <c r="AI61" s="88"/>
-      <c r="AJ61" s="88"/>
-      <c r="AK61" s="88"/>
-      <c r="AL61" s="88"/>
-      <c r="AM61" s="88"/>
-      <c r="AN61" s="88"/>
-      <c r="AO61" s="88"/>
-      <c r="AP61" s="88"/>
-      <c r="AQ61" s="88"/>
-      <c r="AR61" s="88"/>
-      <c r="AS61" s="91"/>
-      <c r="AT61" s="70"/>
-      <c r="AU61" s="70"/>
-      <c r="AV61" s="70"/>
-      <c r="AW61" s="70"/>
-      <c r="AX61" s="70"/>
-      <c r="AY61" s="71"/>
+      <c r="AD61" s="100"/>
+      <c r="AE61" s="100"/>
+      <c r="AF61" s="100"/>
+      <c r="AG61" s="100"/>
+      <c r="AH61" s="100"/>
+      <c r="AI61" s="100"/>
+      <c r="AJ61" s="100"/>
+      <c r="AK61" s="100"/>
+      <c r="AL61" s="100"/>
+      <c r="AM61" s="100"/>
+      <c r="AN61" s="100"/>
+      <c r="AO61" s="100"/>
+      <c r="AP61" s="100"/>
+      <c r="AQ61" s="100"/>
+      <c r="AR61" s="100"/>
+      <c r="AS61" s="100"/>
+      <c r="AT61" s="100"/>
+      <c r="AU61" s="100"/>
+      <c r="AV61" s="100"/>
+      <c r="AW61" s="100"/>
+      <c r="AX61" s="101"/>
+      <c r="AY61" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="Q61:AA61"/>
     <mergeCell ref="D61:O61"/>
-    <mergeCell ref="AC61:AS61"/>
     <mergeCell ref="U42:AH42"/>
-    <mergeCell ref="AJ42:BL42"/>
     <mergeCell ref="D42:S42"/>
+    <mergeCell ref="AC61:AX61"/>
+    <mergeCell ref="AJ42:BI42"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 

--- a/out_file/项目甘特图(已自动还原).xlsx
+++ b/out_file/项目甘特图(已自动还原).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BEC34B-6332-4DD6-B05A-073A120904BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74200A63-AFF3-4005-8653-1A79525CA297}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,6 +30,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -265,7 +266,7 @@
     <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -475,22 +476,32 @@
     <font>
       <sz val="10"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1350,7 +1361,7 @@
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1518,25 +1529,10 @@
     <xf numFmtId="0" fontId="0" fillId="42" borderId="28" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="42" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
@@ -1560,10 +1556,10 @@
     <xf numFmtId="0" fontId="0" fillId="42" borderId="36" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -1593,14 +1589,23 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="41" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
@@ -1614,37 +1619,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1653,8 +1661,8 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="58">
@@ -2249,13 +2257,13 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="2:93" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="2" t="s">
         <v>43</v>
       </c>
@@ -2266,66 +2274,66 @@
         <v>91</v>
       </c>
       <c r="J2" s="9"/>
-      <c r="K2" s="90" t="s">
+      <c r="K2" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="93"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="82"/>
       <c r="O2" s="10"/>
-      <c r="P2" s="90" t="s">
+      <c r="P2" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="93"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="82"/>
       <c r="U2" s="11"/>
-      <c r="V2" s="90" t="s">
+      <c r="V2" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="93"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="82"/>
       <c r="Z2" s="12"/>
-      <c r="AA2" s="90" t="s">
+      <c r="AA2" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="91"/>
-      <c r="AC2" s="91"/>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="93"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="79"/>
+      <c r="AF2" s="82"/>
       <c r="AG2" s="25"/>
-      <c r="AH2" s="90" t="s">
+      <c r="AH2" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="AI2" s="91"/>
-      <c r="AJ2" s="91"/>
-      <c r="AK2" s="91"/>
-      <c r="AL2" s="91"/>
-      <c r="AM2" s="91"/>
-      <c r="AN2" s="91"/>
+      <c r="AI2" s="79"/>
+      <c r="AJ2" s="79"/>
+      <c r="AK2" s="79"/>
+      <c r="AL2" s="79"/>
+      <c r="AM2" s="79"/>
+      <c r="AN2" s="79"/>
       <c r="AO2" s="20"/>
       <c r="AP2" s="20"/>
     </row>
     <row r="3" spans="2:93" s="5" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="88" t="s">
+      <c r="F3" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="92" t="s">
+      <c r="G3" s="80" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -2352,12 +2360,12 @@
       <c r="AA3" s="4"/>
     </row>
     <row r="4" spans="2:93" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
       <c r="H4" s="23">
         <v>1</v>
       </c>
@@ -5289,18 +5297,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="P2:T2"/>
     <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="H5:CO30">
@@ -6921,8 +6929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFB2BFF-70E2-48D6-9BA9-EF200C12E15A}">
   <dimension ref="B5:CV61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG48" sqref="AG48"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC61" sqref="D46:AX61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -8897,7 +8905,7 @@
       <c r="C27" s="45">
         <v>24</v>
       </c>
-      <c r="D27" s="60" t="s">
+      <c r="D27" s="87" t="s">
         <v>29</v>
       </c>
       <c r="E27" s="41"/>
@@ -9005,7 +9013,7 @@
       <c r="C28" s="45">
         <v>14</v>
       </c>
-      <c r="D28" s="60" t="s">
+      <c r="D28" s="87" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="41"/>
@@ -9113,7 +9121,7 @@
       <c r="C29" s="45">
         <v>14</v>
       </c>
-      <c r="D29" s="60" t="s">
+      <c r="D29" s="87" t="s">
         <v>31</v>
       </c>
       <c r="E29" s="41"/>
@@ -9221,7 +9229,7 @@
       <c r="C30" s="45">
         <v>21</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="87" t="s">
         <v>32</v>
       </c>
       <c r="E30" s="41"/>
@@ -9329,7 +9337,7 @@
       <c r="C31" s="45">
         <v>9</v>
       </c>
-      <c r="D31" s="60" t="s">
+      <c r="D31" s="87" t="s">
         <v>33</v>
       </c>
       <c r="E31" s="41"/>
@@ -9437,7 +9445,7 @@
       <c r="C32" s="45">
         <v>30</v>
       </c>
-      <c r="D32" s="60" t="s">
+      <c r="D32" s="87" t="s">
         <v>34</v>
       </c>
       <c r="E32" s="41"/>
@@ -9545,7 +9553,7 @@
       <c r="C33" s="45">
         <v>4</v>
       </c>
-      <c r="D33" s="60" t="s">
+      <c r="D33" s="87" t="s">
         <v>35</v>
       </c>
       <c r="E33" s="41"/>
@@ -9655,7 +9663,7 @@
       <c r="C34" s="45">
         <v>8</v>
       </c>
-      <c r="D34" s="60" t="s">
+      <c r="D34" s="87" t="s">
         <v>36</v>
       </c>
       <c r="E34" s="41"/>
@@ -9763,7 +9771,7 @@
       <c r="C35" s="45">
         <v>35</v>
       </c>
-      <c r="D35" s="60" t="s">
+      <c r="D35" s="87" t="s">
         <v>37</v>
       </c>
       <c r="E35" s="41"/>
@@ -9871,7 +9879,7 @@
       <c r="C36" s="45">
         <v>19</v>
       </c>
-      <c r="D36" s="60" t="s">
+      <c r="D36" s="87" t="s">
         <v>38</v>
       </c>
       <c r="E36" s="42"/>
@@ -9979,7 +9987,7 @@
       <c r="C37" s="45">
         <v>34</v>
       </c>
-      <c r="D37" s="60" t="s">
+      <c r="D37" s="87" t="s">
         <v>39</v>
       </c>
       <c r="E37" s="41"/>
@@ -10040,7 +10048,7 @@
       <c r="BH37" s="44"/>
       <c r="BI37" s="55"/>
       <c r="BK37" s="40"/>
-      <c r="BL37" s="73">
+      <c r="BL37" s="68">
         <v>11</v>
       </c>
       <c r="BM37" s="37"/>
@@ -10087,7 +10095,7 @@
       <c r="C38" s="45">
         <v>5</v>
       </c>
-      <c r="D38" s="60" t="s">
+      <c r="D38" s="87" t="s">
         <v>40</v>
       </c>
       <c r="E38" s="41"/>
@@ -10195,7 +10203,7 @@
       <c r="C39" s="45">
         <v>46</v>
       </c>
-      <c r="D39" s="60" t="s">
+      <c r="D39" s="87" t="s">
         <v>41</v>
       </c>
       <c r="E39" s="41"/>
@@ -10303,66 +10311,66 @@
       <c r="C40" s="45">
         <v>55</v>
       </c>
-      <c r="D40" s="60" t="s">
+      <c r="D40" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="77"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="78"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="78"/>
-      <c r="O40" s="77"/>
-      <c r="P40" s="78"/>
-      <c r="Q40" s="77"/>
-      <c r="R40" s="78"/>
-      <c r="S40" s="77"/>
-      <c r="T40" s="78"/>
-      <c r="U40" s="77"/>
-      <c r="V40" s="78"/>
-      <c r="W40" s="77"/>
-      <c r="X40" s="78"/>
-      <c r="Y40" s="77"/>
-      <c r="Z40" s="78"/>
-      <c r="AA40" s="77"/>
-      <c r="AB40" s="78"/>
-      <c r="AC40" s="77"/>
-      <c r="AD40" s="78"/>
-      <c r="AE40" s="77"/>
-      <c r="AF40" s="78"/>
-      <c r="AG40" s="77"/>
-      <c r="AH40" s="78"/>
-      <c r="AI40" s="77"/>
-      <c r="AJ40" s="78"/>
-      <c r="AK40" s="77"/>
-      <c r="AL40" s="78"/>
-      <c r="AM40" s="77"/>
-      <c r="AN40" s="78"/>
-      <c r="AO40" s="77"/>
-      <c r="AP40" s="78"/>
-      <c r="AQ40" s="77"/>
-      <c r="AR40" s="78"/>
-      <c r="AS40" s="77"/>
-      <c r="AT40" s="78"/>
-      <c r="AU40" s="77"/>
-      <c r="AV40" s="78"/>
-      <c r="AW40" s="77"/>
-      <c r="AX40" s="78"/>
-      <c r="AY40" s="70"/>
-      <c r="AZ40" s="70"/>
-      <c r="BA40" s="70"/>
-      <c r="BB40" s="70"/>
-      <c r="BC40" s="70"/>
-      <c r="BD40" s="70"/>
-      <c r="BE40" s="70"/>
-      <c r="BF40" s="70"/>
-      <c r="BG40" s="70"/>
-      <c r="BH40" s="70"/>
-      <c r="BI40" s="81"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="73"/>
+      <c r="S40" s="72"/>
+      <c r="T40" s="73"/>
+      <c r="U40" s="72"/>
+      <c r="V40" s="73"/>
+      <c r="W40" s="72"/>
+      <c r="X40" s="73"/>
+      <c r="Y40" s="72"/>
+      <c r="Z40" s="73"/>
+      <c r="AA40" s="72"/>
+      <c r="AB40" s="73"/>
+      <c r="AC40" s="72"/>
+      <c r="AD40" s="73"/>
+      <c r="AE40" s="72"/>
+      <c r="AF40" s="73"/>
+      <c r="AG40" s="72"/>
+      <c r="AH40" s="73"/>
+      <c r="AI40" s="72"/>
+      <c r="AJ40" s="73"/>
+      <c r="AK40" s="72"/>
+      <c r="AL40" s="73"/>
+      <c r="AM40" s="72"/>
+      <c r="AN40" s="73"/>
+      <c r="AO40" s="72"/>
+      <c r="AP40" s="73"/>
+      <c r="AQ40" s="72"/>
+      <c r="AR40" s="73"/>
+      <c r="AS40" s="72"/>
+      <c r="AT40" s="73"/>
+      <c r="AU40" s="72"/>
+      <c r="AV40" s="73"/>
+      <c r="AW40" s="72"/>
+      <c r="AX40" s="73"/>
+      <c r="AY40" s="65"/>
+      <c r="AZ40" s="65"/>
+      <c r="BA40" s="65"/>
+      <c r="BB40" s="65"/>
+      <c r="BC40" s="65"/>
+      <c r="BD40" s="65"/>
+      <c r="BE40" s="65"/>
+      <c r="BF40" s="65"/>
+      <c r="BG40" s="65"/>
+      <c r="BH40" s="65"/>
+      <c r="BI40" s="76"/>
       <c r="BK40" s="40"/>
       <c r="BM40" s="37"/>
       <c r="BN40" s="41"/>
@@ -10408,10 +10416,10 @@
       <c r="C41" s="45">
         <v>56</v>
       </c>
-      <c r="D41" s="82" t="s">
+      <c r="D41" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="84">
+      <c r="E41" s="77">
         <v>0</v>
       </c>
       <c r="F41" s="33">
@@ -10639,70 +10647,70 @@
       <c r="CC41" s="34"/>
     </row>
     <row r="42" spans="2:100" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D42" s="98"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="99"/>
-      <c r="J42" s="99"/>
-      <c r="K42" s="99"/>
-      <c r="L42" s="99"/>
-      <c r="M42" s="99"/>
-      <c r="N42" s="99"/>
-      <c r="O42" s="99"/>
-      <c r="P42" s="99"/>
-      <c r="Q42" s="99"/>
-      <c r="R42" s="99"/>
-      <c r="S42" s="99"/>
-      <c r="T42" s="57"/>
-      <c r="U42" s="97" t="s">
+      <c r="D42" s="89"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="90"/>
+      <c r="K42" s="90"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="90"/>
+      <c r="N42" s="90"/>
+      <c r="O42" s="90"/>
+      <c r="P42" s="90"/>
+      <c r="Q42" s="90"/>
+      <c r="R42" s="90"/>
+      <c r="S42" s="90"/>
+      <c r="T42" s="91"/>
+      <c r="U42" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="V42" s="97"/>
-      <c r="W42" s="97"/>
-      <c r="X42" s="97"/>
-      <c r="Y42" s="97"/>
-      <c r="Z42" s="97"/>
-      <c r="AA42" s="97"/>
-      <c r="AB42" s="97"/>
-      <c r="AC42" s="97"/>
-      <c r="AD42" s="97"/>
-      <c r="AE42" s="97"/>
-      <c r="AF42" s="97"/>
-      <c r="AG42" s="97"/>
-      <c r="AH42" s="97"/>
-      <c r="AI42" s="83"/>
-      <c r="AJ42" s="97" t="s">
+      <c r="V42" s="92"/>
+      <c r="W42" s="92"/>
+      <c r="X42" s="92"/>
+      <c r="Y42" s="92"/>
+      <c r="Z42" s="92"/>
+      <c r="AA42" s="92"/>
+      <c r="AB42" s="92"/>
+      <c r="AC42" s="92"/>
+      <c r="AD42" s="92"/>
+      <c r="AE42" s="92"/>
+      <c r="AF42" s="92"/>
+      <c r="AG42" s="92"/>
+      <c r="AH42" s="92"/>
+      <c r="AI42" s="93"/>
+      <c r="AJ42" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="AK42" s="97"/>
-      <c r="AL42" s="97"/>
-      <c r="AM42" s="97"/>
-      <c r="AN42" s="97"/>
-      <c r="AO42" s="97"/>
-      <c r="AP42" s="97"/>
-      <c r="AQ42" s="97"/>
-      <c r="AR42" s="97"/>
-      <c r="AS42" s="97"/>
-      <c r="AT42" s="97"/>
-      <c r="AU42" s="97"/>
-      <c r="AV42" s="97"/>
-      <c r="AW42" s="97"/>
-      <c r="AX42" s="97"/>
-      <c r="AY42" s="97"/>
-      <c r="AZ42" s="97"/>
-      <c r="BA42" s="97"/>
-      <c r="BB42" s="97"/>
-      <c r="BC42" s="97"/>
-      <c r="BD42" s="97"/>
-      <c r="BE42" s="97"/>
-      <c r="BF42" s="97"/>
-      <c r="BG42" s="97"/>
-      <c r="BH42" s="97"/>
-      <c r="BI42" s="102"/>
-      <c r="BJ42" s="72"/>
-      <c r="BK42" s="71"/>
+      <c r="AK42" s="92"/>
+      <c r="AL42" s="92"/>
+      <c r="AM42" s="92"/>
+      <c r="AN42" s="92"/>
+      <c r="AO42" s="92"/>
+      <c r="AP42" s="92"/>
+      <c r="AQ42" s="92"/>
+      <c r="AR42" s="92"/>
+      <c r="AS42" s="92"/>
+      <c r="AT42" s="92"/>
+      <c r="AU42" s="92"/>
+      <c r="AV42" s="92"/>
+      <c r="AW42" s="92"/>
+      <c r="AX42" s="92"/>
+      <c r="AY42" s="92"/>
+      <c r="AZ42" s="92"/>
+      <c r="BA42" s="92"/>
+      <c r="BB42" s="92"/>
+      <c r="BC42" s="92"/>
+      <c r="BD42" s="92"/>
+      <c r="BE42" s="92"/>
+      <c r="BF42" s="92"/>
+      <c r="BG42" s="92"/>
+      <c r="BH42" s="92"/>
+      <c r="BI42" s="94"/>
+      <c r="BJ42" s="67"/>
+      <c r="BK42" s="66"/>
     </row>
     <row r="43" spans="2:100" s="31" customFormat="1" ht="11.5" x14ac:dyDescent="0.3">
       <c r="E43" s="46">
@@ -11109,7 +11117,7 @@
       <c r="AS45" s="33">
         <v>40</v>
       </c>
-      <c r="AT45" s="59">
+      <c r="AT45" s="58">
         <v>41</v>
       </c>
       <c r="AU45" s="33">
@@ -11220,7 +11228,7 @@
       <c r="C46" s="45">
         <v>24</v>
       </c>
-      <c r="D46" s="60" t="s">
+      <c r="D46" s="87" t="s">
         <v>29</v>
       </c>
       <c r="E46" s="49"/>
@@ -11263,13 +11271,13 @@
       <c r="AP46" s="50"/>
       <c r="AQ46" s="51"/>
       <c r="AR46" s="50"/>
-      <c r="AS46" s="67"/>
+      <c r="AS46" s="62"/>
       <c r="AT46" s="50"/>
-      <c r="AU46" s="69"/>
+      <c r="AU46" s="64"/>
       <c r="AV46" s="50"/>
       <c r="AW46" s="51"/>
       <c r="AX46" s="53"/>
-      <c r="AZ46" s="74">
+      <c r="AZ46" s="69">
         <v>0</v>
       </c>
       <c r="BA46" s="51"/>
@@ -11328,7 +11336,7 @@
       <c r="C47" s="45">
         <v>14</v>
       </c>
-      <c r="D47" s="60" t="s">
+      <c r="D47" s="87" t="s">
         <v>30</v>
       </c>
       <c r="E47" s="56"/>
@@ -11371,13 +11379,13 @@
       <c r="AP47" s="41"/>
       <c r="AQ47" s="40"/>
       <c r="AR47" s="41"/>
-      <c r="AS47" s="68"/>
+      <c r="AS47" s="63"/>
       <c r="AT47" s="41"/>
       <c r="AU47" s="37"/>
       <c r="AV47" s="35"/>
       <c r="AW47" s="40"/>
       <c r="AX47" s="55"/>
-      <c r="AZ47" s="58">
+      <c r="AZ47" s="57">
         <v>5</v>
       </c>
       <c r="BA47" s="40"/>
@@ -11436,7 +11444,7 @@
       <c r="C48" s="45">
         <v>14</v>
       </c>
-      <c r="D48" s="60" t="s">
+      <c r="D48" s="87" t="s">
         <v>31</v>
       </c>
       <c r="E48" s="56"/>
@@ -11479,13 +11487,13 @@
       <c r="AP48" s="41"/>
       <c r="AQ48" s="40"/>
       <c r="AR48" s="41"/>
-      <c r="AS48" s="68"/>
+      <c r="AS48" s="63"/>
       <c r="AT48" s="41"/>
       <c r="AU48" s="37"/>
       <c r="AV48" s="41"/>
       <c r="AW48" s="40"/>
       <c r="AX48" s="55"/>
-      <c r="AZ48" s="58">
+      <c r="AZ48" s="57">
         <v>7</v>
       </c>
       <c r="BA48" s="40"/>
@@ -11544,7 +11552,7 @@
       <c r="C49" s="45">
         <v>21</v>
       </c>
-      <c r="D49" s="60" t="s">
+      <c r="D49" s="87" t="s">
         <v>32</v>
       </c>
       <c r="E49" s="54"/>
@@ -11587,13 +11595,13 @@
       <c r="AP49" s="41"/>
       <c r="AQ49" s="40"/>
       <c r="AR49" s="41"/>
-      <c r="AS49" s="68"/>
+      <c r="AS49" s="63"/>
       <c r="AT49" s="41"/>
       <c r="AU49" s="37"/>
       <c r="AV49" s="41"/>
       <c r="AW49" s="40"/>
       <c r="AX49" s="55"/>
-      <c r="AZ49" s="58">
+      <c r="AZ49" s="57">
         <v>0</v>
       </c>
       <c r="BA49" s="40"/>
@@ -11652,7 +11660,7 @@
       <c r="C50" s="45">
         <v>9</v>
       </c>
-      <c r="D50" s="60" t="s">
+      <c r="D50" s="87" t="s">
         <v>33</v>
       </c>
       <c r="E50" s="56"/>
@@ -11695,13 +11703,13 @@
       <c r="AP50" s="41"/>
       <c r="AQ50" s="40"/>
       <c r="AR50" s="41"/>
-      <c r="AS50" s="68"/>
+      <c r="AS50" s="63"/>
       <c r="AT50" s="41"/>
       <c r="AU50" s="37"/>
       <c r="AV50" s="41"/>
       <c r="AW50" s="40"/>
       <c r="AX50" s="55"/>
-      <c r="AZ50" s="58">
+      <c r="AZ50" s="57">
         <v>0</v>
       </c>
       <c r="BA50" s="40"/>
@@ -11762,7 +11770,7 @@
       <c r="C51" s="45">
         <v>30</v>
       </c>
-      <c r="D51" s="60" t="s">
+      <c r="D51" s="87" t="s">
         <v>34</v>
       </c>
       <c r="E51" s="54"/>
@@ -11805,13 +11813,13 @@
       <c r="AP51" s="41"/>
       <c r="AQ51" s="40"/>
       <c r="AR51" s="41"/>
-      <c r="AS51" s="68"/>
+      <c r="AS51" s="63"/>
       <c r="AT51" s="41"/>
       <c r="AU51" s="37"/>
       <c r="AV51" s="41"/>
       <c r="AW51" s="40"/>
       <c r="AX51" s="55"/>
-      <c r="AZ51" s="58">
+      <c r="AZ51" s="57">
         <v>0</v>
       </c>
       <c r="BA51" s="40"/>
@@ -11873,7 +11881,7 @@
       <c r="C52" s="45">
         <v>4</v>
       </c>
-      <c r="D52" s="60" t="s">
+      <c r="D52" s="87" t="s">
         <v>35</v>
       </c>
       <c r="E52" s="54"/>
@@ -11916,13 +11924,13 @@
       <c r="AP52" s="41"/>
       <c r="AQ52" s="40"/>
       <c r="AR52" s="41"/>
-      <c r="AS52" s="68"/>
+      <c r="AS52" s="63"/>
       <c r="AT52" s="41"/>
       <c r="AU52" s="37"/>
       <c r="AV52" s="41"/>
       <c r="AW52" s="40"/>
       <c r="AX52" s="55"/>
-      <c r="AZ52" s="58">
+      <c r="AZ52" s="57">
         <v>16</v>
       </c>
       <c r="BA52" s="40"/>
@@ -11984,7 +11992,7 @@
       <c r="C53" s="45">
         <v>8</v>
       </c>
-      <c r="D53" s="60" t="s">
+      <c r="D53" s="87" t="s">
         <v>36</v>
       </c>
       <c r="E53" s="56"/>
@@ -12027,13 +12035,13 @@
       <c r="AP53" s="41"/>
       <c r="AQ53" s="40"/>
       <c r="AR53" s="41"/>
-      <c r="AS53" s="68"/>
+      <c r="AS53" s="63"/>
       <c r="AT53" s="41"/>
       <c r="AU53" s="37"/>
       <c r="AV53" s="41"/>
       <c r="AW53" s="40"/>
       <c r="AX53" s="55"/>
-      <c r="AZ53" s="58">
+      <c r="AZ53" s="57">
         <v>21</v>
       </c>
       <c r="BA53" s="40"/>
@@ -12092,7 +12100,7 @@
       <c r="C54" s="45">
         <v>35</v>
       </c>
-      <c r="D54" s="60" t="s">
+      <c r="D54" s="87" t="s">
         <v>37</v>
       </c>
       <c r="E54" s="54"/>
@@ -12135,13 +12143,13 @@
       <c r="AP54" s="41"/>
       <c r="AQ54" s="40"/>
       <c r="AR54" s="41"/>
-      <c r="AS54" s="68"/>
+      <c r="AS54" s="63"/>
       <c r="AT54" s="41"/>
       <c r="AU54" s="37"/>
       <c r="AV54" s="41"/>
       <c r="AW54" s="40"/>
       <c r="AX54" s="55"/>
-      <c r="AZ54" s="58">
+      <c r="AZ54" s="57">
         <v>0</v>
       </c>
       <c r="BA54" s="40"/>
@@ -12200,7 +12208,7 @@
       <c r="C55" s="45">
         <v>19</v>
       </c>
-      <c r="D55" s="60" t="s">
+      <c r="D55" s="87" t="s">
         <v>38</v>
       </c>
       <c r="E55" s="54"/>
@@ -12243,13 +12251,13 @@
       <c r="AP55" s="41"/>
       <c r="AQ55" s="40"/>
       <c r="AR55" s="41"/>
-      <c r="AS55" s="68"/>
+      <c r="AS55" s="63"/>
       <c r="AT55" s="41"/>
       <c r="AU55" s="37"/>
       <c r="AV55" s="41"/>
       <c r="AW55" s="40"/>
       <c r="AX55" s="55"/>
-      <c r="AZ55" s="58">
+      <c r="AZ55" s="57">
         <v>4</v>
       </c>
       <c r="BA55" s="40"/>
@@ -12311,7 +12319,7 @@
       <c r="C56" s="45">
         <v>34</v>
       </c>
-      <c r="D56" s="60" t="s">
+      <c r="D56" s="87" t="s">
         <v>39</v>
       </c>
       <c r="E56" s="54"/>
@@ -12360,7 +12368,7 @@
       <c r="AV56" s="44"/>
       <c r="AW56" s="44"/>
       <c r="AX56" s="55"/>
-      <c r="AZ56" s="58">
+      <c r="AZ56" s="57">
         <v>9</v>
       </c>
       <c r="BA56" s="40"/>
@@ -12419,7 +12427,7 @@
       <c r="C57" s="45">
         <v>5</v>
       </c>
-      <c r="D57" s="60" t="s">
+      <c r="D57" s="87" t="s">
         <v>40</v>
       </c>
       <c r="E57" s="56"/>
@@ -12462,13 +12470,13 @@
       <c r="AP57" s="41"/>
       <c r="AQ57" s="40"/>
       <c r="AR57" s="41"/>
-      <c r="AS57" s="68"/>
+      <c r="AS57" s="63"/>
       <c r="AT57" s="41"/>
       <c r="AU57" s="37"/>
       <c r="AV57" s="41"/>
       <c r="AW57" s="40"/>
       <c r="AX57" s="55"/>
-      <c r="AZ57" s="58">
+      <c r="AZ57" s="57">
         <v>30</v>
       </c>
       <c r="BA57" s="40"/>
@@ -12527,7 +12535,7 @@
       <c r="C58" s="45">
         <v>46</v>
       </c>
-      <c r="D58" s="60" t="s">
+      <c r="D58" s="87" t="s">
         <v>41</v>
       </c>
       <c r="E58" s="54"/>
@@ -12570,13 +12578,13 @@
       <c r="AP58" s="41"/>
       <c r="AQ58" s="40"/>
       <c r="AR58" s="41"/>
-      <c r="AS58" s="68"/>
+      <c r="AS58" s="63"/>
       <c r="AT58" s="41"/>
       <c r="AU58" s="37"/>
       <c r="AV58" s="41"/>
       <c r="AW58" s="40"/>
       <c r="AX58" s="55"/>
-      <c r="AZ58" s="58">
+      <c r="AZ58" s="57">
         <v>0</v>
       </c>
       <c r="BA58" s="40"/>
@@ -12635,71 +12643,71 @@
       <c r="C59" s="45">
         <v>55</v>
       </c>
-      <c r="D59" s="60" t="s">
+      <c r="D59" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="E59" s="76"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="77"/>
-      <c r="K59" s="78"/>
-      <c r="L59" s="77"/>
-      <c r="M59" s="78"/>
-      <c r="N59" s="77"/>
-      <c r="O59" s="78"/>
-      <c r="P59" s="77"/>
-      <c r="Q59" s="78"/>
-      <c r="R59" s="77"/>
-      <c r="S59" s="78"/>
-      <c r="T59" s="77"/>
-      <c r="U59" s="78"/>
-      <c r="V59" s="77"/>
-      <c r="W59" s="78"/>
-      <c r="X59" s="77"/>
-      <c r="Y59" s="78"/>
-      <c r="Z59" s="77"/>
-      <c r="AA59" s="78"/>
-      <c r="AB59" s="77"/>
-      <c r="AC59" s="78"/>
-      <c r="AD59" s="77"/>
-      <c r="AE59" s="78"/>
-      <c r="AF59" s="77"/>
-      <c r="AG59" s="78"/>
-      <c r="AH59" s="77"/>
-      <c r="AI59" s="78"/>
-      <c r="AJ59" s="77"/>
-      <c r="AK59" s="78"/>
-      <c r="AL59" s="77"/>
-      <c r="AM59" s="78"/>
-      <c r="AN59" s="70"/>
-      <c r="AO59" s="70"/>
-      <c r="AP59" s="70"/>
-      <c r="AQ59" s="70"/>
-      <c r="AR59" s="70"/>
-      <c r="AS59" s="79"/>
-      <c r="AT59" s="70"/>
-      <c r="AU59" s="80"/>
-      <c r="AV59" s="70"/>
-      <c r="AW59" s="70"/>
-      <c r="AX59" s="81"/>
-      <c r="AZ59" s="75">
+      <c r="E59" s="71"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="72"/>
+      <c r="K59" s="73"/>
+      <c r="L59" s="72"/>
+      <c r="M59" s="73"/>
+      <c r="N59" s="72"/>
+      <c r="O59" s="73"/>
+      <c r="P59" s="72"/>
+      <c r="Q59" s="73"/>
+      <c r="R59" s="72"/>
+      <c r="S59" s="73"/>
+      <c r="T59" s="72"/>
+      <c r="U59" s="73"/>
+      <c r="V59" s="72"/>
+      <c r="W59" s="73"/>
+      <c r="X59" s="72"/>
+      <c r="Y59" s="73"/>
+      <c r="Z59" s="72"/>
+      <c r="AA59" s="73"/>
+      <c r="AB59" s="72"/>
+      <c r="AC59" s="73"/>
+      <c r="AD59" s="72"/>
+      <c r="AE59" s="73"/>
+      <c r="AF59" s="72"/>
+      <c r="AG59" s="73"/>
+      <c r="AH59" s="72"/>
+      <c r="AI59" s="73"/>
+      <c r="AJ59" s="72"/>
+      <c r="AK59" s="73"/>
+      <c r="AL59" s="72"/>
+      <c r="AM59" s="73"/>
+      <c r="AN59" s="65"/>
+      <c r="AO59" s="65"/>
+      <c r="AP59" s="65"/>
+      <c r="AQ59" s="65"/>
+      <c r="AR59" s="65"/>
+      <c r="AS59" s="74"/>
+      <c r="AT59" s="65"/>
+      <c r="AU59" s="75"/>
+      <c r="AV59" s="65"/>
+      <c r="AW59" s="65"/>
+      <c r="AX59" s="76"/>
+      <c r="AZ59" s="70">
         <v>0</v>
       </c>
-      <c r="BA59" s="66"/>
-      <c r="BB59" s="65"/>
-      <c r="BC59" s="66"/>
-      <c r="BD59" s="65"/>
-      <c r="BE59" s="66"/>
-      <c r="BF59" s="65"/>
-      <c r="BG59" s="66"/>
-      <c r="BH59" s="65"/>
-      <c r="BI59" s="66"/>
-      <c r="BJ59" s="65"/>
-      <c r="BK59" s="66"/>
-      <c r="BL59" s="65"/>
-      <c r="BM59" s="66"/>
+      <c r="BA59" s="61"/>
+      <c r="BB59" s="60"/>
+      <c r="BC59" s="61"/>
+      <c r="BD59" s="60"/>
+      <c r="BE59" s="61"/>
+      <c r="BF59" s="60"/>
+      <c r="BG59" s="61"/>
+      <c r="BH59" s="60"/>
+      <c r="BI59" s="61"/>
+      <c r="BJ59" s="60"/>
+      <c r="BK59" s="61"/>
+      <c r="BL59" s="60"/>
+      <c r="BM59" s="61"/>
       <c r="BN59" s="41"/>
       <c r="BO59" s="40"/>
       <c r="BP59" s="35"/>
@@ -12743,10 +12751,10 @@
       <c r="C60" s="45">
         <v>56</v>
       </c>
-      <c r="D60" s="61" t="s">
+      <c r="D60" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="E60" s="84">
+      <c r="E60" s="77">
         <v>0</v>
       </c>
       <c r="F60" s="33">
@@ -12884,46 +12892,46 @@
       <c r="AX60" s="34">
         <v>45</v>
       </c>
-      <c r="AZ60" s="64">
+      <c r="AZ60" s="59">
         <v>47</v>
       </c>
-      <c r="BA60" s="64">
+      <c r="BA60" s="59">
         <v>48</v>
       </c>
-      <c r="BB60" s="64">
+      <c r="BB60" s="59">
         <v>49</v>
       </c>
-      <c r="BC60" s="64">
+      <c r="BC60" s="59">
         <v>50</v>
       </c>
-      <c r="BD60" s="64">
+      <c r="BD60" s="59">
         <v>51</v>
       </c>
-      <c r="BE60" s="64">
+      <c r="BE60" s="59">
         <v>52</v>
       </c>
-      <c r="BF60" s="64">
+      <c r="BF60" s="59">
         <v>53</v>
       </c>
-      <c r="BG60" s="64">
+      <c r="BG60" s="59">
         <v>54</v>
       </c>
-      <c r="BH60" s="64">
+      <c r="BH60" s="59">
         <v>55</v>
       </c>
-      <c r="BI60" s="64">
+      <c r="BI60" s="59">
         <v>56</v>
       </c>
-      <c r="BJ60" s="64">
+      <c r="BJ60" s="59">
         <v>57</v>
       </c>
-      <c r="BK60" s="64">
+      <c r="BK60" s="59">
         <v>58</v>
       </c>
-      <c r="BL60" s="64">
+      <c r="BL60" s="59">
         <v>59</v>
       </c>
-      <c r="BM60" s="64">
+      <c r="BM60" s="59">
         <v>60</v>
       </c>
       <c r="BN60" s="33">
@@ -12974,58 +12982,58 @@
       <c r="CC60" s="34"/>
     </row>
     <row r="61" spans="2:100" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D61" s="95"/>
-      <c r="E61" s="96"/>
-      <c r="F61" s="96"/>
-      <c r="G61" s="96"/>
-      <c r="H61" s="96"/>
-      <c r="I61" s="96"/>
-      <c r="J61" s="96"/>
-      <c r="K61" s="96"/>
-      <c r="L61" s="96"/>
-      <c r="M61" s="96"/>
-      <c r="N61" s="96"/>
-      <c r="O61" s="96"/>
-      <c r="P61" s="63"/>
-      <c r="Q61" s="94" t="s">
+      <c r="D61" s="89"/>
+      <c r="E61" s="95"/>
+      <c r="F61" s="95"/>
+      <c r="G61" s="95"/>
+      <c r="H61" s="95"/>
+      <c r="I61" s="95"/>
+      <c r="J61" s="95"/>
+      <c r="K61" s="95"/>
+      <c r="L61" s="95"/>
+      <c r="M61" s="95"/>
+      <c r="N61" s="95"/>
+      <c r="O61" s="95"/>
+      <c r="P61" s="96"/>
+      <c r="Q61" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="R61" s="94"/>
-      <c r="S61" s="94"/>
-      <c r="T61" s="94"/>
-      <c r="U61" s="94"/>
-      <c r="V61" s="94"/>
-      <c r="W61" s="94"/>
-      <c r="X61" s="94"/>
-      <c r="Y61" s="94"/>
-      <c r="Z61" s="94"/>
-      <c r="AA61" s="94"/>
-      <c r="AB61" s="62"/>
-      <c r="AC61" s="100" t="s">
+      <c r="R61" s="97"/>
+      <c r="S61" s="97"/>
+      <c r="T61" s="97"/>
+      <c r="U61" s="97"/>
+      <c r="V61" s="97"/>
+      <c r="W61" s="97"/>
+      <c r="X61" s="97"/>
+      <c r="Y61" s="97"/>
+      <c r="Z61" s="97"/>
+      <c r="AA61" s="97"/>
+      <c r="AB61" s="98"/>
+      <c r="AC61" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="AD61" s="100"/>
-      <c r="AE61" s="100"/>
-      <c r="AF61" s="100"/>
-      <c r="AG61" s="100"/>
-      <c r="AH61" s="100"/>
-      <c r="AI61" s="100"/>
-      <c r="AJ61" s="100"/>
-      <c r="AK61" s="100"/>
-      <c r="AL61" s="100"/>
-      <c r="AM61" s="100"/>
-      <c r="AN61" s="100"/>
-      <c r="AO61" s="100"/>
-      <c r="AP61" s="100"/>
-      <c r="AQ61" s="100"/>
-      <c r="AR61" s="100"/>
-      <c r="AS61" s="100"/>
-      <c r="AT61" s="100"/>
-      <c r="AU61" s="100"/>
-      <c r="AV61" s="100"/>
-      <c r="AW61" s="100"/>
-      <c r="AX61" s="101"/>
-      <c r="AY61" s="72"/>
+      <c r="AD61" s="99"/>
+      <c r="AE61" s="99"/>
+      <c r="AF61" s="99"/>
+      <c r="AG61" s="99"/>
+      <c r="AH61" s="99"/>
+      <c r="AI61" s="99"/>
+      <c r="AJ61" s="99"/>
+      <c r="AK61" s="99"/>
+      <c r="AL61" s="99"/>
+      <c r="AM61" s="99"/>
+      <c r="AN61" s="99"/>
+      <c r="AO61" s="99"/>
+      <c r="AP61" s="99"/>
+      <c r="AQ61" s="99"/>
+      <c r="AR61" s="99"/>
+      <c r="AS61" s="99"/>
+      <c r="AT61" s="99"/>
+      <c r="AU61" s="99"/>
+      <c r="AV61" s="99"/>
+      <c r="AW61" s="99"/>
+      <c r="AX61" s="100"/>
+      <c r="AY61" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="6">
